--- a/Data/SwissPeaks360_2021_DEM.xlsx
+++ b/Data/SwissPeaks360_2021_DEM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="1547">
   <si>
     <t>Bib</t>
   </si>
@@ -3170,6 +3170,519 @@
   </si>
   <si>
     <t>1994</t>
+  </si>
+  <si>
+    <t>3 days 14:34:28</t>
+  </si>
+  <si>
+    <t>3 days 21:51:22</t>
+  </si>
+  <si>
+    <t>4 days 03:18:46</t>
+  </si>
+  <si>
+    <t>4 days 04:37:23</t>
+  </si>
+  <si>
+    <t>4 days 05:21:47</t>
+  </si>
+  <si>
+    <t>4 days 06:14:19</t>
+  </si>
+  <si>
+    <t>4 days 07:30:28</t>
+  </si>
+  <si>
+    <t>4 days 09:35:10</t>
+  </si>
+  <si>
+    <t>4 days 10:30:56</t>
+  </si>
+  <si>
+    <t>4 days 11:01:32</t>
+  </si>
+  <si>
+    <t>4 days 13:17:48</t>
+  </si>
+  <si>
+    <t>4 days 13:17:52</t>
+  </si>
+  <si>
+    <t>4 days 14:16:22</t>
+  </si>
+  <si>
+    <t>4 days 17:44:25</t>
+  </si>
+  <si>
+    <t>4 days 18:25:22</t>
+  </si>
+  <si>
+    <t>4 days 18:38:14</t>
+  </si>
+  <si>
+    <t>4 days 19:14:13</t>
+  </si>
+  <si>
+    <t>4 days 19:25:53</t>
+  </si>
+  <si>
+    <t>4 days 19:26:20</t>
+  </si>
+  <si>
+    <t>4 days 20:36:50</t>
+  </si>
+  <si>
+    <t>4 days 20:39:28</t>
+  </si>
+  <si>
+    <t>4 days 20:40:48</t>
+  </si>
+  <si>
+    <t>4 days 20:51:32</t>
+  </si>
+  <si>
+    <t>4 days 21:04:32</t>
+  </si>
+  <si>
+    <t>4 days 22:49:36</t>
+  </si>
+  <si>
+    <t>4 days 23:20:00</t>
+  </si>
+  <si>
+    <t>4 days 23:55:29</t>
+  </si>
+  <si>
+    <t>5 days 00:13:10</t>
+  </si>
+  <si>
+    <t>5 days 00:59:51</t>
+  </si>
+  <si>
+    <t>5 days 00:59:53</t>
+  </si>
+  <si>
+    <t>5 days 01:09:45</t>
+  </si>
+  <si>
+    <t>5 days 01:57:19</t>
+  </si>
+  <si>
+    <t>5 days 02:04:20</t>
+  </si>
+  <si>
+    <t>5 days 02:06:33</t>
+  </si>
+  <si>
+    <t>5 days 02:20:32</t>
+  </si>
+  <si>
+    <t>5 days 02:30:18</t>
+  </si>
+  <si>
+    <t>5 days 02:30:19</t>
+  </si>
+  <si>
+    <t>5 days 02:41:08</t>
+  </si>
+  <si>
+    <t>5 days 02:48:27</t>
+  </si>
+  <si>
+    <t>5 days 02:50:39</t>
+  </si>
+  <si>
+    <t>5 days 03:24:06</t>
+  </si>
+  <si>
+    <t>5 days 03:33:08</t>
+  </si>
+  <si>
+    <t>5 days 03:34:52</t>
+  </si>
+  <si>
+    <t>5 days 03:57:07</t>
+  </si>
+  <si>
+    <t>5 days 04:23:34</t>
+  </si>
+  <si>
+    <t>5 days 04:37:16</t>
+  </si>
+  <si>
+    <t>5 days 04:45:20</t>
+  </si>
+  <si>
+    <t>5 days 04:55:09</t>
+  </si>
+  <si>
+    <t>5 days 05:03:44</t>
+  </si>
+  <si>
+    <t>5 days 05:09:55</t>
+  </si>
+  <si>
+    <t>5 days 05:18:28</t>
+  </si>
+  <si>
+    <t>5 days 05:49:32</t>
+  </si>
+  <si>
+    <t>5 days 06:17:42</t>
+  </si>
+  <si>
+    <t>5 days 06:31:53</t>
+  </si>
+  <si>
+    <t>5 days 06:35:46</t>
+  </si>
+  <si>
+    <t>5 days 06:54:06</t>
+  </si>
+  <si>
+    <t>5 days 07:10:35</t>
+  </si>
+  <si>
+    <t>5 days 07:42:08</t>
+  </si>
+  <si>
+    <t>5 days 08:29:51</t>
+  </si>
+  <si>
+    <t>5 days 08:34:39</t>
+  </si>
+  <si>
+    <t>5 days 08:34:40</t>
+  </si>
+  <si>
+    <t>5 days 09:10:28</t>
+  </si>
+  <si>
+    <t>5 days 09:10:29</t>
+  </si>
+  <si>
+    <t>5 days 09:16:28</t>
+  </si>
+  <si>
+    <t>5 days 09:20:55</t>
+  </si>
+  <si>
+    <t>5 days 09:27:12</t>
+  </si>
+  <si>
+    <t>5 days 09:28:59</t>
+  </si>
+  <si>
+    <t>5 days 10:21:37</t>
+  </si>
+  <si>
+    <t>5 days 10:27:01</t>
+  </si>
+  <si>
+    <t>5 days 10:50:47</t>
+  </si>
+  <si>
+    <t>5 days 11:32:42</t>
+  </si>
+  <si>
+    <t>5 days 11:32:44</t>
+  </si>
+  <si>
+    <t>5 days 12:03:12</t>
+  </si>
+  <si>
+    <t>5 days 12:19:09</t>
+  </si>
+  <si>
+    <t>5 days 13:00:36</t>
+  </si>
+  <si>
+    <t>5 days 13:13:35</t>
+  </si>
+  <si>
+    <t>5 days 15:48:28</t>
+  </si>
+  <si>
+    <t>5 days 16:08:46</t>
+  </si>
+  <si>
+    <t>5 days 16:37:26</t>
+  </si>
+  <si>
+    <t>5 days 16:40:00</t>
+  </si>
+  <si>
+    <t>5 days 16:55:30</t>
+  </si>
+  <si>
+    <t>5 days 17:06:34</t>
+  </si>
+  <si>
+    <t>5 days 17:14:00</t>
+  </si>
+  <si>
+    <t>5 days 17:55:16</t>
+  </si>
+  <si>
+    <t>5 days 18:44:08</t>
+  </si>
+  <si>
+    <t>5 days 18:44:09</t>
+  </si>
+  <si>
+    <t>5 days 18:52:02</t>
+  </si>
+  <si>
+    <t>5 days 19:09:12</t>
+  </si>
+  <si>
+    <t>5 days 19:36:57</t>
+  </si>
+  <si>
+    <t>5 days 19:42:35</t>
+  </si>
+  <si>
+    <t>5 days 19:50:28</t>
+  </si>
+  <si>
+    <t>5 days 20:16:25</t>
+  </si>
+  <si>
+    <t>5 days 20:38:37</t>
+  </si>
+  <si>
+    <t>5 days 21:34:13</t>
+  </si>
+  <si>
+    <t>5 days 21:36:05</t>
+  </si>
+  <si>
+    <t>5 days 21:36:06</t>
+  </si>
+  <si>
+    <t>5 days 21:59:41</t>
+  </si>
+  <si>
+    <t>5 days 22:20:22</t>
+  </si>
+  <si>
+    <t>5 days 22:42:12</t>
+  </si>
+  <si>
+    <t>5 days 22:50:52</t>
+  </si>
+  <si>
+    <t>5 days 23:00:51</t>
+  </si>
+  <si>
+    <t>5 days 23:29:03</t>
+  </si>
+  <si>
+    <t>5 days 23:40:52</t>
+  </si>
+  <si>
+    <t>6 days 00:01:30</t>
+  </si>
+  <si>
+    <t>6 days 00:33:03</t>
+  </si>
+  <si>
+    <t>6 days 00:43:00</t>
+  </si>
+  <si>
+    <t>6 days 00:51:36</t>
+  </si>
+  <si>
+    <t>6 days 01:16:10</t>
+  </si>
+  <si>
+    <t>6 days 01:35:37</t>
+  </si>
+  <si>
+    <t>6 days 01:39:01</t>
+  </si>
+  <si>
+    <t>6 days 01:45:04</t>
+  </si>
+  <si>
+    <t>6 days 01:46:09</t>
+  </si>
+  <si>
+    <t>6 days 02:04:05</t>
+  </si>
+  <si>
+    <t>6 days 02:04:37</t>
+  </si>
+  <si>
+    <t>6 days 02:18:48</t>
+  </si>
+  <si>
+    <t>6 days 02:21:32</t>
+  </si>
+  <si>
+    <t>6 days 02:32:55</t>
+  </si>
+  <si>
+    <t>6 days 02:32:56</t>
+  </si>
+  <si>
+    <t>6 days 02:34:17</t>
+  </si>
+  <si>
+    <t>6 days 02:45:34</t>
+  </si>
+  <si>
+    <t>6 days 02:45:36</t>
+  </si>
+  <si>
+    <t>6 days 02:52:48</t>
+  </si>
+  <si>
+    <t>6 days 03:29:30</t>
+  </si>
+  <si>
+    <t>6 days 03:30:04</t>
+  </si>
+  <si>
+    <t>6 days 03:31:49</t>
+  </si>
+  <si>
+    <t>6 days 03:32:54</t>
+  </si>
+  <si>
+    <t>6 days 03:33:56</t>
+  </si>
+  <si>
+    <t>6 days 03:34:18</t>
+  </si>
+  <si>
+    <t>6 days 04:04:14</t>
+  </si>
+  <si>
+    <t>6 days 04:26:16</t>
+  </si>
+  <si>
+    <t>6 days 04:43:54</t>
+  </si>
+  <si>
+    <t>6 days 04:47:04</t>
+  </si>
+  <si>
+    <t>6 days 04:48:25</t>
+  </si>
+  <si>
+    <t>6 days 04:59:09</t>
+  </si>
+  <si>
+    <t>6 days 04:59:11</t>
+  </si>
+  <si>
+    <t>6 days 05:12:16</t>
+  </si>
+  <si>
+    <t>6 days 05:40:46</t>
+  </si>
+  <si>
+    <t>6 days 05:55:43</t>
+  </si>
+  <si>
+    <t>6 days 05:55:46</t>
+  </si>
+  <si>
+    <t>6 days 05:59:40</t>
+  </si>
+  <si>
+    <t>6 days 06:03:58</t>
+  </si>
+  <si>
+    <t>6 days 06:05:07</t>
+  </si>
+  <si>
+    <t>6 days 06:15:12</t>
+  </si>
+  <si>
+    <t>6 days 06:32:30</t>
+  </si>
+  <si>
+    <t>6 days 06:54:49</t>
+  </si>
+  <si>
+    <t>6 days 07:05:53</t>
+  </si>
+  <si>
+    <t>6 days 07:24:57</t>
+  </si>
+  <si>
+    <t>6 days 07:35:45</t>
+  </si>
+  <si>
+    <t>6 days 07:40:24</t>
+  </si>
+  <si>
+    <t>6 days 08:07:36</t>
+  </si>
+  <si>
+    <t>6 days 08:55:47</t>
+  </si>
+  <si>
+    <t>6 days 09:15:39</t>
+  </si>
+  <si>
+    <t>6 days 10:38:51</t>
+  </si>
+  <si>
+    <t>6 days 11:18:06</t>
+  </si>
+  <si>
+    <t>NaT</t>
+  </si>
+  <si>
+    <t>4 days 09:06:23</t>
+  </si>
+  <si>
+    <t>4 days 20:03:19</t>
+  </si>
+  <si>
+    <t>4 days 20:36:47</t>
+  </si>
+  <si>
+    <t>5 days 00:23:27</t>
+  </si>
+  <si>
+    <t>5 days 04:13:29</t>
+  </si>
+  <si>
+    <t>5 days 04:59:35</t>
+  </si>
+  <si>
+    <t>5 days 07:10:34</t>
+  </si>
+  <si>
+    <t>5 days 10:27:52</t>
+  </si>
+  <si>
+    <t>5 days 10:49:21</t>
+  </si>
+  <si>
+    <t>5 days 20:50:11</t>
+  </si>
+  <si>
+    <t>6 days 01:54:48</t>
+  </si>
+  <si>
+    <t>6 days 04:10:30</t>
+  </si>
+  <si>
+    <t>6 days 04:35:35</t>
+  </si>
+  <si>
+    <t>6 days 05:24:11</t>
+  </si>
+  <si>
+    <t>6 days 05:52:37</t>
+  </si>
+  <si>
+    <t>6 days 06:32:28</t>
   </si>
   <si>
     <t>2021</t>
@@ -4200,12 +4713,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4563,17 +5075,17 @@
       <c r="G2" t="s">
         <v>1009</v>
       </c>
-      <c r="H2" s="2">
-        <v>3.607268518518519</v>
+      <c r="H2" t="s">
+        <v>1052</v>
       </c>
       <c r="I2" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J2" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K2" t="s">
-        <v>1054</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4598,17 +5110,17 @@
       <c r="G3" t="s">
         <v>1010</v>
       </c>
-      <c r="H3" s="2">
-        <v>3.910671296296296</v>
+      <c r="H3" t="s">
+        <v>1053</v>
       </c>
       <c r="I3" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J3" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K3" t="s">
-        <v>1055</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4633,17 +5145,17 @@
       <c r="G4" t="s">
         <v>1011</v>
       </c>
-      <c r="H4" s="2">
-        <v>4.138032407407407</v>
+      <c r="H4" t="s">
+        <v>1054</v>
       </c>
       <c r="I4" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J4" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K4" t="s">
-        <v>1056</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4668,17 +5180,17 @@
       <c r="G5" t="s">
         <v>1012</v>
       </c>
-      <c r="H5" s="2">
-        <v>4.192627314814815</v>
+      <c r="H5" t="s">
+        <v>1055</v>
       </c>
       <c r="I5" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J5" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K5" t="s">
-        <v>1057</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4703,17 +5215,17 @@
       <c r="G6" t="s">
         <v>1013</v>
       </c>
-      <c r="H6" s="2">
-        <v>4.223460648148148</v>
+      <c r="H6" t="s">
+        <v>1056</v>
       </c>
       <c r="I6" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J6" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K6" t="s">
-        <v>1058</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4738,17 +5250,17 @@
       <c r="G7" t="s">
         <v>1013</v>
       </c>
-      <c r="H7" s="2">
-        <v>4.259942129629629</v>
+      <c r="H7" t="s">
+        <v>1057</v>
       </c>
       <c r="I7" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J7" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K7" t="s">
-        <v>1059</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4773,17 +5285,17 @@
       <c r="G8" t="s">
         <v>1014</v>
       </c>
-      <c r="H8" s="2">
-        <v>4.312824074074074</v>
+      <c r="H8" t="s">
+        <v>1058</v>
       </c>
       <c r="I8" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J8" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K8" t="s">
-        <v>1060</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4808,17 +5320,17 @@
       <c r="G9" t="s">
         <v>1015</v>
       </c>
-      <c r="H9" s="2">
-        <v>4.399421296296296</v>
+      <c r="H9" t="s">
+        <v>1059</v>
       </c>
       <c r="I9" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J9" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K9" t="s">
-        <v>1061</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4843,17 +5355,17 @@
       <c r="G10" t="s">
         <v>1016</v>
       </c>
-      <c r="H10" s="2">
-        <v>4.438148148148148</v>
+      <c r="H10" t="s">
+        <v>1060</v>
       </c>
       <c r="I10" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J10" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K10" t="s">
-        <v>1062</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4878,17 +5390,17 @@
       <c r="G11" t="s">
         <v>1014</v>
       </c>
-      <c r="H11" s="2">
-        <v>4.459398148148148</v>
+      <c r="H11" t="s">
+        <v>1061</v>
       </c>
       <c r="I11" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J11" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K11" t="s">
-        <v>1063</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4913,17 +5425,17 @@
       <c r="G12" t="s">
         <v>1016</v>
       </c>
-      <c r="H12" s="2">
-        <v>4.554027777777778</v>
+      <c r="H12" t="s">
+        <v>1062</v>
       </c>
       <c r="I12" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J12" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K12" t="s">
-        <v>1064</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4948,17 +5460,17 @@
       <c r="G13" t="s">
         <v>1013</v>
       </c>
-      <c r="H13" s="2">
-        <v>4.554074074074074</v>
+      <c r="H13" t="s">
+        <v>1063</v>
       </c>
       <c r="I13" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J13" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K13" t="s">
-        <v>1065</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4983,17 +5495,17 @@
       <c r="G14" t="s">
         <v>1015</v>
       </c>
-      <c r="H14" s="2">
-        <v>4.594699074074074</v>
+      <c r="H14" t="s">
+        <v>1064</v>
       </c>
       <c r="I14" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J14" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K14" t="s">
-        <v>1066</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5018,17 +5530,17 @@
       <c r="G15" t="s">
         <v>1010</v>
       </c>
-      <c r="H15" s="2">
-        <v>4.739178240740741</v>
+      <c r="H15" t="s">
+        <v>1065</v>
       </c>
       <c r="I15" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J15" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K15" t="s">
-        <v>1067</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5053,17 +5565,17 @@
       <c r="G16" t="s">
         <v>1012</v>
       </c>
-      <c r="H16" s="2">
-        <v>4.767615740740741</v>
+      <c r="H16" t="s">
+        <v>1066</v>
       </c>
       <c r="I16" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J16" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K16" t="s">
-        <v>1068</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5088,17 +5600,17 @@
       <c r="G17" t="s">
         <v>1017</v>
       </c>
-      <c r="H17" s="2">
-        <v>4.776550925925926</v>
+      <c r="H17" t="s">
+        <v>1067</v>
       </c>
       <c r="I17" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J17" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K17" t="s">
-        <v>1069</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5123,17 +5635,17 @@
       <c r="G18" t="s">
         <v>1017</v>
       </c>
-      <c r="H18" s="2">
-        <v>4.801539351851852</v>
+      <c r="H18" t="s">
+        <v>1068</v>
       </c>
       <c r="I18" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J18" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K18" t="s">
-        <v>1070</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5158,17 +5670,17 @@
       <c r="G19" t="s">
         <v>1018</v>
       </c>
-      <c r="H19" s="2">
-        <v>4.809641203703704</v>
+      <c r="H19" t="s">
+        <v>1069</v>
       </c>
       <c r="I19" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J19" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K19" t="s">
-        <v>1071</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -5193,17 +5705,17 @@
       <c r="G20" t="s">
         <v>1019</v>
       </c>
-      <c r="H20" s="2">
-        <v>4.809953703703703</v>
+      <c r="H20" t="s">
+        <v>1070</v>
       </c>
       <c r="I20" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J20" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K20" t="s">
-        <v>1072</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -5228,17 +5740,17 @@
       <c r="G21" t="s">
         <v>1017</v>
       </c>
-      <c r="H21" s="2">
-        <v>4.858912037037037</v>
+      <c r="H21" t="s">
+        <v>1071</v>
       </c>
       <c r="I21" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J21" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K21" t="s">
-        <v>1073</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -5263,17 +5775,17 @@
       <c r="G22" t="s">
         <v>1020</v>
       </c>
-      <c r="H22" s="2">
-        <v>4.860740740740741</v>
+      <c r="H22" t="s">
+        <v>1072</v>
       </c>
       <c r="I22" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J22" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K22" t="s">
-        <v>1074</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5298,17 +5810,17 @@
       <c r="G23" t="s">
         <v>1021</v>
       </c>
-      <c r="H23" s="2">
-        <v>4.861666666666666</v>
+      <c r="H23" t="s">
+        <v>1073</v>
       </c>
       <c r="I23" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J23" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K23" t="s">
-        <v>1075</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5333,17 +5845,17 @@
       <c r="G24" t="s">
         <v>1022</v>
       </c>
-      <c r="H24" s="2">
-        <v>4.86912037037037</v>
+      <c r="H24" t="s">
+        <v>1074</v>
       </c>
       <c r="I24" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J24" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K24" t="s">
-        <v>1076</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5368,17 +5880,17 @@
       <c r="G25" t="s">
         <v>1023</v>
       </c>
-      <c r="H25" s="2">
-        <v>4.878148148148148</v>
+      <c r="H25" t="s">
+        <v>1075</v>
       </c>
       <c r="I25" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J25" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K25" t="s">
-        <v>1077</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5403,17 +5915,17 @@
       <c r="G26" t="s">
         <v>1024</v>
       </c>
-      <c r="H26" s="2">
-        <v>4.951111111111111</v>
+      <c r="H26" t="s">
+        <v>1076</v>
       </c>
       <c r="I26" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J26" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K26" t="s">
-        <v>1078</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5438,17 +5950,17 @@
       <c r="G27" t="s">
         <v>1025</v>
       </c>
-      <c r="H27" s="2">
-        <v>4.972222222222222</v>
+      <c r="H27" t="s">
+        <v>1077</v>
       </c>
       <c r="I27" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J27" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K27" t="s">
-        <v>1079</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5473,17 +5985,17 @@
       <c r="G28" t="s">
         <v>1026</v>
       </c>
-      <c r="H28" s="2">
-        <v>4.996863425925926</v>
+      <c r="H28" t="s">
+        <v>1078</v>
       </c>
       <c r="I28" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J28" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K28" t="s">
-        <v>1080</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5508,17 +6020,17 @@
       <c r="G29" t="s">
         <v>1025</v>
       </c>
-      <c r="H29" s="2">
-        <v>4.996863425925926</v>
+      <c r="H29" t="s">
+        <v>1078</v>
       </c>
       <c r="I29" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J29" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K29" t="s">
-        <v>1081</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5543,17 +6055,17 @@
       <c r="G30" t="s">
         <v>1027</v>
       </c>
-      <c r="H30" s="2">
-        <v>5.009143518518519</v>
+      <c r="H30" t="s">
+        <v>1079</v>
       </c>
       <c r="I30" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J30" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K30" t="s">
-        <v>1082</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5578,17 +6090,17 @@
       <c r="G31" t="s">
         <v>1017</v>
       </c>
-      <c r="H31" s="2">
-        <v>5.0415625</v>
+      <c r="H31" t="s">
+        <v>1080</v>
       </c>
       <c r="I31" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J31" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K31" t="s">
-        <v>1083</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5613,17 +6125,17 @@
       <c r="G32" t="s">
         <v>1023</v>
       </c>
-      <c r="H32" s="2">
-        <v>5.041585648148148</v>
+      <c r="H32" t="s">
+        <v>1081</v>
       </c>
       <c r="I32" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J32" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K32" t="s">
-        <v>1084</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5648,17 +6160,17 @@
       <c r="G33" t="s">
         <v>1016</v>
       </c>
-      <c r="H33" s="2">
-        <v>5.0484375</v>
+      <c r="H33" t="s">
+        <v>1082</v>
       </c>
       <c r="I33" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J33" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K33" t="s">
-        <v>1085</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5683,17 +6195,17 @@
       <c r="G34" t="s">
         <v>1028</v>
       </c>
-      <c r="H34" s="2">
-        <v>5.081469907407407</v>
+      <c r="H34" t="s">
+        <v>1083</v>
       </c>
       <c r="I34" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J34" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K34" t="s">
-        <v>1086</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5718,17 +6230,17 @@
       <c r="G35" t="s">
         <v>1016</v>
       </c>
-      <c r="H35" s="2">
-        <v>5.086342592592593</v>
+      <c r="H35" t="s">
+        <v>1084</v>
       </c>
       <c r="I35" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J35" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K35" t="s">
-        <v>1087</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5753,17 +6265,17 @@
       <c r="G36" t="s">
         <v>1029</v>
       </c>
-      <c r="H36" s="2">
-        <v>5.087881944444445</v>
+      <c r="H36" t="s">
+        <v>1085</v>
       </c>
       <c r="I36" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J36" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K36" t="s">
-        <v>1088</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5788,17 +6300,17 @@
       <c r="G37" t="s">
         <v>1016</v>
       </c>
-      <c r="H37" s="2">
-        <v>5.097592592592592</v>
+      <c r="H37" t="s">
+        <v>1086</v>
       </c>
       <c r="I37" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J37" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K37" t="s">
-        <v>1089</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5823,17 +6335,17 @@
       <c r="G38" t="s">
         <v>1021</v>
       </c>
-      <c r="H38" s="2">
-        <v>5.104375</v>
+      <c r="H38" t="s">
+        <v>1087</v>
       </c>
       <c r="I38" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J38" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K38" t="s">
-        <v>1090</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5858,17 +6370,17 @@
       <c r="G39" t="s">
         <v>1019</v>
       </c>
-      <c r="H39" s="2">
-        <v>5.104386574074074</v>
+      <c r="H39" t="s">
+        <v>1088</v>
       </c>
       <c r="I39" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J39" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K39" t="s">
-        <v>1091</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5893,17 +6405,17 @@
       <c r="G40" t="s">
         <v>1030</v>
       </c>
-      <c r="H40" s="2">
-        <v>5.111898148148148</v>
+      <c r="H40" t="s">
+        <v>1089</v>
       </c>
       <c r="I40" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J40" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K40" t="s">
-        <v>1092</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5928,17 +6440,17 @@
       <c r="G41" t="s">
         <v>1027</v>
       </c>
-      <c r="H41" s="2">
-        <v>5.116979166666667</v>
+      <c r="H41" t="s">
+        <v>1090</v>
       </c>
       <c r="I41" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J41" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K41" t="s">
-        <v>1093</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5963,17 +6475,17 @@
       <c r="G42" t="s">
         <v>1031</v>
       </c>
-      <c r="H42" s="2">
-        <v>5.116979166666667</v>
+      <c r="H42" t="s">
+        <v>1090</v>
       </c>
       <c r="I42" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J42" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K42" t="s">
-        <v>1094</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5998,17 +6510,17 @@
       <c r="G43" t="s">
         <v>1017</v>
       </c>
-      <c r="H43" s="2">
-        <v>5.118506944444444</v>
+      <c r="H43" t="s">
+        <v>1091</v>
       </c>
       <c r="I43" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J43" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K43" t="s">
-        <v>1095</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6033,17 +6545,17 @@
       <c r="G44" t="s">
         <v>1032</v>
       </c>
-      <c r="H44" s="2">
-        <v>5.141736111111111</v>
+      <c r="H44" t="s">
+        <v>1092</v>
       </c>
       <c r="I44" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J44" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K44" t="s">
-        <v>1096</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -6068,17 +6580,17 @@
       <c r="G45" t="s">
         <v>1016</v>
       </c>
-      <c r="H45" s="2">
-        <v>5.148009259259259</v>
+      <c r="H45" t="s">
+        <v>1093</v>
       </c>
       <c r="I45" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J45" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K45" t="s">
-        <v>1097</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6103,17 +6615,17 @@
       <c r="G46" t="s">
         <v>1009</v>
       </c>
-      <c r="H46" s="2">
-        <v>5.149212962962963</v>
+      <c r="H46" t="s">
+        <v>1094</v>
       </c>
       <c r="I46" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J46" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K46" t="s">
-        <v>1098</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -6138,17 +6650,17 @@
       <c r="G47" t="s">
         <v>1033</v>
       </c>
-      <c r="H47" s="2">
-        <v>5.149212962962963</v>
+      <c r="H47" t="s">
+        <v>1094</v>
       </c>
       <c r="I47" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J47" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K47" t="s">
-        <v>1099</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -6173,17 +6685,17 @@
       <c r="G48" t="s">
         <v>1020</v>
       </c>
-      <c r="H48" s="2">
-        <v>5.164664351851852</v>
+      <c r="H48" t="s">
+        <v>1095</v>
       </c>
       <c r="I48" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J48" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K48" t="s">
-        <v>1100</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -6208,17 +6720,17 @@
       <c r="G49" t="s">
         <v>1017</v>
       </c>
-      <c r="H49" s="2">
-        <v>5.183032407407407</v>
+      <c r="H49" t="s">
+        <v>1096</v>
       </c>
       <c r="I49" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J49" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K49" t="s">
-        <v>1101</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -6243,17 +6755,17 @@
       <c r="G50" t="s">
         <v>1023</v>
       </c>
-      <c r="H50" s="2">
-        <v>5.192546296296296</v>
+      <c r="H50" t="s">
+        <v>1097</v>
       </c>
       <c r="I50" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J50" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K50" t="s">
-        <v>1102</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -6278,17 +6790,17 @@
       <c r="G51" t="s">
         <v>1016</v>
       </c>
-      <c r="H51" s="2">
-        <v>5.198148148148148</v>
+      <c r="H51" t="s">
+        <v>1098</v>
       </c>
       <c r="I51" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J51" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K51" t="s">
-        <v>1103</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6313,17 +6825,17 @@
       <c r="G52" t="s">
         <v>1034</v>
       </c>
-      <c r="H52" s="2">
-        <v>5.204965277777778</v>
+      <c r="H52" t="s">
+        <v>1099</v>
       </c>
       <c r="I52" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J52" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K52" t="s">
-        <v>1104</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6348,17 +6860,17 @@
       <c r="G53" t="s">
         <v>1030</v>
       </c>
-      <c r="H53" s="2">
-        <v>5.210925925925926</v>
+      <c r="H53" t="s">
+        <v>1100</v>
       </c>
       <c r="I53" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J53" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K53" t="s">
-        <v>1105</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6383,17 +6895,17 @@
       <c r="G54" t="s">
         <v>1026</v>
       </c>
-      <c r="H54" s="2">
-        <v>5.215219907407407</v>
+      <c r="H54" t="s">
+        <v>1101</v>
       </c>
       <c r="I54" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J54" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K54" t="s">
-        <v>1106</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6418,17 +6930,17 @@
       <c r="G55" t="s">
         <v>1011</v>
       </c>
-      <c r="H55" s="2">
-        <v>5.221157407407407</v>
+      <c r="H55" t="s">
+        <v>1102</v>
       </c>
       <c r="I55" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J55" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K55" t="s">
-        <v>1107</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6453,17 +6965,17 @@
       <c r="G56" t="s">
         <v>1018</v>
       </c>
-      <c r="H56" s="2">
-        <v>5.242731481481481</v>
+      <c r="H56" t="s">
+        <v>1103</v>
       </c>
       <c r="I56" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J56" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K56" t="s">
-        <v>1108</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6488,17 +7000,17 @@
       <c r="G57" t="s">
         <v>1025</v>
       </c>
-      <c r="H57" s="2">
-        <v>5.262291666666667</v>
+      <c r="H57" t="s">
+        <v>1104</v>
       </c>
       <c r="I57" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J57" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K57" t="s">
-        <v>1109</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6523,17 +7035,17 @@
       <c r="G58" t="s">
         <v>1010</v>
       </c>
-      <c r="H58" s="2">
-        <v>5.272141203703704</v>
+      <c r="H58" t="s">
+        <v>1105</v>
       </c>
       <c r="I58" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J58" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K58" t="s">
-        <v>1110</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6558,17 +7070,17 @@
       <c r="G59" t="s">
         <v>1012</v>
       </c>
-      <c r="H59" s="2">
-        <v>5.274837962962963</v>
+      <c r="H59" t="s">
+        <v>1106</v>
       </c>
       <c r="I59" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J59" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K59" t="s">
-        <v>1111</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6593,17 +7105,17 @@
       <c r="G60" t="s">
         <v>1035</v>
       </c>
-      <c r="H60" s="2">
-        <v>5.287569444444444</v>
+      <c r="H60" t="s">
+        <v>1107</v>
       </c>
       <c r="I60" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J60" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K60" t="s">
-        <v>1112</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6628,17 +7140,17 @@
       <c r="G61" t="s">
         <v>1036</v>
       </c>
-      <c r="H61" s="2">
-        <v>5.299016203703704</v>
+      <c r="H61" t="s">
+        <v>1108</v>
       </c>
       <c r="I61" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J61" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K61" t="s">
-        <v>1113</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6663,17 +7175,17 @@
       <c r="G62" t="s">
         <v>1037</v>
       </c>
-      <c r="H62" s="2">
-        <v>5.320925925925926</v>
+      <c r="H62" t="s">
+        <v>1109</v>
       </c>
       <c r="I62" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J62" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K62" t="s">
-        <v>1114</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6698,17 +7210,17 @@
       <c r="G63" t="s">
         <v>1028</v>
       </c>
-      <c r="H63" s="2">
-        <v>5.3540625</v>
+      <c r="H63" t="s">
+        <v>1110</v>
       </c>
       <c r="I63" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J63" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K63" t="s">
-        <v>1115</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6733,17 +7245,17 @@
       <c r="G64" t="s">
         <v>1012</v>
       </c>
-      <c r="H64" s="2">
-        <v>5.3540625</v>
+      <c r="H64" t="s">
+        <v>1110</v>
       </c>
       <c r="I64" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J64" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K64" t="s">
-        <v>1116</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6768,17 +7280,17 @@
       <c r="G65" t="s">
         <v>1013</v>
       </c>
-      <c r="H65" s="2">
-        <v>5.3540625</v>
+      <c r="H65" t="s">
+        <v>1110</v>
       </c>
       <c r="I65" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J65" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K65" t="s">
-        <v>1117</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6803,17 +7315,17 @@
       <c r="G66" t="s">
         <v>1030</v>
       </c>
-      <c r="H66" s="2">
-        <v>5.357395833333333</v>
+      <c r="H66" t="s">
+        <v>1111</v>
       </c>
       <c r="I66" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J66" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K66" t="s">
-        <v>1118</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6838,17 +7350,17 @@
       <c r="G67" t="s">
         <v>1022</v>
       </c>
-      <c r="H67" s="2">
-        <v>5.357407407407408</v>
+      <c r="H67" t="s">
+        <v>1112</v>
       </c>
       <c r="I67" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J67" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K67" t="s">
-        <v>1119</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6873,17 +7385,17 @@
       <c r="G68" t="s">
         <v>1026</v>
       </c>
-      <c r="H68" s="2">
-        <v>5.382268518518519</v>
+      <c r="H68" t="s">
+        <v>1113</v>
       </c>
       <c r="I68" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J68" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K68" t="s">
-        <v>1120</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6908,17 +7420,17 @@
       <c r="G69" t="s">
         <v>1037</v>
       </c>
-      <c r="H69" s="2">
-        <v>5.382280092592593</v>
+      <c r="H69" t="s">
+        <v>1114</v>
       </c>
       <c r="I69" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J69" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K69" t="s">
-        <v>1121</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6943,17 +7455,17 @@
       <c r="G70" t="s">
         <v>1023</v>
       </c>
-      <c r="H70" s="2">
-        <v>5.386435185185185</v>
+      <c r="H70" t="s">
+        <v>1115</v>
       </c>
       <c r="I70" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J70" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K70" t="s">
-        <v>1122</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6978,17 +7490,17 @@
       <c r="G71" t="s">
         <v>1022</v>
       </c>
-      <c r="H71" s="2">
-        <v>5.389525462962963</v>
+      <c r="H71" t="s">
+        <v>1116</v>
       </c>
       <c r="I71" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J71" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K71" t="s">
-        <v>1123</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -7013,17 +7525,17 @@
       <c r="G72" t="s">
         <v>1009</v>
       </c>
-      <c r="H72" s="2">
-        <v>5.393888888888889</v>
+      <c r="H72" t="s">
+        <v>1117</v>
       </c>
       <c r="I72" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J72" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K72" t="s">
-        <v>1124</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -7048,17 +7560,17 @@
       <c r="G73" t="s">
         <v>1023</v>
       </c>
-      <c r="H73" s="2">
-        <v>5.395127314814815</v>
+      <c r="H73" t="s">
+        <v>1118</v>
       </c>
       <c r="I73" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J73" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K73" t="s">
-        <v>1125</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -7083,17 +7595,17 @@
       <c r="G74" t="s">
         <v>1025</v>
       </c>
-      <c r="H74" s="2">
-        <v>5.431678240740741</v>
+      <c r="H74" t="s">
+        <v>1119</v>
       </c>
       <c r="I74" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J74" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K74" t="s">
-        <v>1126</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -7118,17 +7630,17 @@
       <c r="G75" t="s">
         <v>1030</v>
       </c>
-      <c r="H75" s="2">
-        <v>5.435428240740741</v>
+      <c r="H75" t="s">
+        <v>1120</v>
       </c>
       <c r="I75" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J75" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K75" t="s">
-        <v>1127</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -7153,17 +7665,17 @@
       <c r="G76" t="s">
         <v>1038</v>
       </c>
-      <c r="H76" s="2">
-        <v>5.451932870370371</v>
+      <c r="H76" t="s">
+        <v>1121</v>
       </c>
       <c r="I76" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J76" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K76" t="s">
-        <v>1128</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -7188,17 +7700,17 @@
       <c r="G77" t="s">
         <v>1032</v>
       </c>
-      <c r="H77" s="2">
-        <v>5.481041666666667</v>
+      <c r="H77" t="s">
+        <v>1122</v>
       </c>
       <c r="I77" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J77" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K77" t="s">
-        <v>1129</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -7223,17 +7735,17 @@
       <c r="G78" t="s">
         <v>1037</v>
       </c>
-      <c r="H78" s="2">
-        <v>5.481064814814815</v>
+      <c r="H78" t="s">
+        <v>1123</v>
       </c>
       <c r="I78" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J78" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K78" t="s">
-        <v>1130</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -7258,17 +7770,17 @@
       <c r="G79" t="s">
         <v>1009</v>
       </c>
-      <c r="H79" s="2">
-        <v>5.502222222222223</v>
+      <c r="H79" t="s">
+        <v>1124</v>
       </c>
       <c r="I79" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J79" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K79" t="s">
-        <v>1131</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -7293,17 +7805,17 @@
       <c r="G80" t="s">
         <v>1018</v>
       </c>
-      <c r="H80" s="2">
-        <v>5.513298611111111</v>
+      <c r="H80" t="s">
+        <v>1125</v>
       </c>
       <c r="I80" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J80" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K80" t="s">
-        <v>1132</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -7328,17 +7840,17 @@
       <c r="G81" t="s">
         <v>1036</v>
       </c>
-      <c r="H81" s="2">
-        <v>5.542083333333333</v>
+      <c r="H81" t="s">
+        <v>1126</v>
       </c>
       <c r="I81" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J81" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K81" t="s">
-        <v>1133</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -7363,17 +7875,17 @@
       <c r="G82" t="s">
         <v>1016</v>
       </c>
-      <c r="H82" s="2">
-        <v>5.551099537037037</v>
+      <c r="H82" t="s">
+        <v>1127</v>
       </c>
       <c r="I82" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J82" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K82" t="s">
-        <v>1134</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -7398,17 +7910,17 @@
       <c r="G83" t="s">
         <v>1027</v>
       </c>
-      <c r="H83" s="2">
-        <v>5.658657407407407</v>
+      <c r="H83" t="s">
+        <v>1128</v>
       </c>
       <c r="I83" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J83" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K83" t="s">
-        <v>1135</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -7433,17 +7945,17 @@
       <c r="G84" t="s">
         <v>1027</v>
       </c>
-      <c r="H84" s="2">
-        <v>5.67275462962963</v>
+      <c r="H84" t="s">
+        <v>1129</v>
       </c>
       <c r="I84" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J84" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K84" t="s">
-        <v>1136</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -7468,17 +7980,17 @@
       <c r="G85" t="s">
         <v>1025</v>
       </c>
-      <c r="H85" s="2">
-        <v>5.692662037037037</v>
+      <c r="H85" t="s">
+        <v>1130</v>
       </c>
       <c r="I85" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J85" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K85" t="s">
-        <v>1137</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -7503,17 +8015,17 @@
       <c r="G86" t="s">
         <v>1022</v>
       </c>
-      <c r="H86" s="2">
-        <v>5.694444444444445</v>
+      <c r="H86" t="s">
+        <v>1131</v>
       </c>
       <c r="I86" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J86" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K86" t="s">
-        <v>1138</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -7538,17 +8050,17 @@
       <c r="G87" t="s">
         <v>1023</v>
       </c>
-      <c r="H87" s="2">
-        <v>5.705208333333333</v>
+      <c r="H87" t="s">
+        <v>1132</v>
       </c>
       <c r="I87" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J87" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K87" t="s">
-        <v>1139</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -7573,17 +8085,17 @@
       <c r="G88" t="s">
         <v>1022</v>
       </c>
-      <c r="H88" s="2">
-        <v>5.712893518518518</v>
+      <c r="H88" t="s">
+        <v>1133</v>
       </c>
       <c r="I88" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J88" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K88" t="s">
-        <v>1140</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -7608,17 +8120,17 @@
       <c r="G89" t="s">
         <v>1031</v>
       </c>
-      <c r="H89" s="2">
-        <v>5.718055555555556</v>
+      <c r="H89" t="s">
+        <v>1134</v>
       </c>
       <c r="I89" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J89" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K89" t="s">
-        <v>1141</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -7643,17 +8155,17 @@
       <c r="G90" t="s">
         <v>1031</v>
       </c>
-      <c r="H90" s="2">
-        <v>5.746712962962963</v>
+      <c r="H90" t="s">
+        <v>1135</v>
       </c>
       <c r="I90" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J90" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K90" t="s">
-        <v>1142</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -7678,17 +8190,17 @@
       <c r="G91" t="s">
         <v>1026</v>
       </c>
-      <c r="H91" s="2">
-        <v>5.780648148148148</v>
+      <c r="H91" t="s">
+        <v>1136</v>
       </c>
       <c r="I91" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J91" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K91" t="s">
-        <v>1143</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -7713,17 +8225,17 @@
       <c r="G92" t="s">
         <v>1015</v>
       </c>
-      <c r="H92" s="2">
-        <v>5.780659722222222</v>
+      <c r="H92" t="s">
+        <v>1137</v>
       </c>
       <c r="I92" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J92" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K92" t="s">
-        <v>1144</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7748,17 +8260,17 @@
       <c r="G93" t="s">
         <v>1017</v>
       </c>
-      <c r="H93" s="2">
-        <v>5.786134259259259</v>
+      <c r="H93" t="s">
+        <v>1138</v>
       </c>
       <c r="I93" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J93" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K93" t="s">
-        <v>1145</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7783,17 +8295,17 @@
       <c r="G94" t="s">
         <v>1009</v>
       </c>
-      <c r="H94" s="2">
-        <v>5.798055555555556</v>
+      <c r="H94" t="s">
+        <v>1139</v>
       </c>
       <c r="I94" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J94" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K94" t="s">
-        <v>1146</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7818,17 +8330,17 @@
       <c r="G95" t="s">
         <v>1025</v>
       </c>
-      <c r="H95" s="2">
-        <v>5.817326388888889</v>
+      <c r="H95" t="s">
+        <v>1140</v>
       </c>
       <c r="I95" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J95" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K95" t="s">
-        <v>1147</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -7853,17 +8365,17 @@
       <c r="G96" t="s">
         <v>1038</v>
       </c>
-      <c r="H96" s="2">
-        <v>5.821238425925926</v>
+      <c r="H96" t="s">
+        <v>1141</v>
       </c>
       <c r="I96" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J96" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K96" t="s">
-        <v>1148</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -7888,17 +8400,17 @@
       <c r="G97" t="s">
         <v>1009</v>
       </c>
-      <c r="H97" s="2">
-        <v>5.826712962962963</v>
+      <c r="H97" t="s">
+        <v>1142</v>
       </c>
       <c r="I97" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J97" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K97" t="s">
-        <v>1149</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7923,17 +8435,17 @@
       <c r="G98" t="s">
         <v>1026</v>
       </c>
-      <c r="H98" s="2">
-        <v>5.844733796296296</v>
+      <c r="H98" t="s">
+        <v>1143</v>
       </c>
       <c r="I98" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J98" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K98" t="s">
-        <v>1150</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7958,17 +8470,17 @@
       <c r="G99" t="s">
         <v>1022</v>
       </c>
-      <c r="H99" s="2">
-        <v>5.860150462962963</v>
+      <c r="H99" t="s">
+        <v>1144</v>
       </c>
       <c r="I99" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J99" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K99" t="s">
-        <v>1151</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7993,17 +8505,17 @@
       <c r="G100" t="s">
         <v>1017</v>
       </c>
-      <c r="H100" s="2">
-        <v>5.898761574074074</v>
+      <c r="H100" t="s">
+        <v>1145</v>
       </c>
       <c r="I100" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J100" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K100" t="s">
-        <v>1152</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -8028,17 +8540,17 @@
       <c r="G101" t="s">
         <v>1022</v>
       </c>
-      <c r="H101" s="2">
-        <v>5.900057870370371</v>
+      <c r="H101" t="s">
+        <v>1146</v>
       </c>
       <c r="I101" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J101" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K101" t="s">
-        <v>1153</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -8063,17 +8575,17 @@
       <c r="G102" t="s">
         <v>1016</v>
       </c>
-      <c r="H102" s="2">
-        <v>5.900069444444444</v>
+      <c r="H102" t="s">
+        <v>1147</v>
       </c>
       <c r="I102" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J102" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K102" t="s">
-        <v>1154</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -8098,17 +8610,17 @@
       <c r="G103" t="s">
         <v>1026</v>
       </c>
-      <c r="H103" s="2">
-        <v>5.91644675925926</v>
+      <c r="H103" t="s">
+        <v>1148</v>
       </c>
       <c r="I103" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J103" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K103" t="s">
-        <v>1155</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -8133,17 +8645,17 @@
       <c r="G104" t="s">
         <v>1016</v>
       </c>
-      <c r="H104" s="2">
-        <v>5.930810185185186</v>
+      <c r="H104" t="s">
+        <v>1149</v>
       </c>
       <c r="I104" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J104" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K104" t="s">
-        <v>1156</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -8168,17 +8680,17 @@
       <c r="G105" t="s">
         <v>1018</v>
       </c>
-      <c r="H105" s="2">
-        <v>5.945972222222222</v>
+      <c r="H105" t="s">
+        <v>1150</v>
       </c>
       <c r="I105" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J105" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K105" t="s">
-        <v>1157</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -8203,17 +8715,17 @@
       <c r="G106" t="s">
         <v>1030</v>
       </c>
-      <c r="H106" s="2">
-        <v>5.951990740740741</v>
+      <c r="H106" t="s">
+        <v>1151</v>
       </c>
       <c r="I106" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J106" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K106" t="s">
-        <v>1158</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -8238,17 +8750,17 @@
       <c r="G107" t="s">
         <v>1014</v>
       </c>
-      <c r="H107" s="2">
-        <v>5.958923611111111</v>
+      <c r="H107" t="s">
+        <v>1152</v>
       </c>
       <c r="I107" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J107" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K107" t="s">
-        <v>1159</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -8273,17 +8785,17 @@
       <c r="G108" t="s">
         <v>1016</v>
       </c>
-      <c r="H108" s="2">
-        <v>5.978506944444445</v>
+      <c r="H108" t="s">
+        <v>1153</v>
       </c>
       <c r="I108" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J108" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K108" t="s">
-        <v>1160</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -8308,17 +8820,17 @@
       <c r="G109" t="s">
         <v>1023</v>
       </c>
-      <c r="H109" s="2">
-        <v>5.986712962962963</v>
+      <c r="H109" t="s">
+        <v>1154</v>
       </c>
       <c r="I109" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J109" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K109" t="s">
-        <v>1161</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -8343,17 +8855,17 @@
       <c r="G110" t="s">
         <v>1022</v>
       </c>
-      <c r="H110" s="2">
-        <v>6.001041666666667</v>
+      <c r="H110" t="s">
+        <v>1155</v>
       </c>
       <c r="I110" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J110" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K110" t="s">
-        <v>1162</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -8378,17 +8890,17 @@
       <c r="G111" t="s">
         <v>1025</v>
       </c>
-      <c r="H111" s="2">
-        <v>6.022951388888889</v>
+      <c r="H111" t="s">
+        <v>1156</v>
       </c>
       <c r="I111" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J111" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K111" t="s">
-        <v>1163</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -8413,17 +8925,17 @@
       <c r="G112" t="s">
         <v>1016</v>
       </c>
-      <c r="H112" s="2">
-        <v>6.029861111111111</v>
+      <c r="H112" t="s">
+        <v>1157</v>
       </c>
       <c r="I112" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J112" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K112" t="s">
-        <v>1164</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -8448,17 +8960,17 @@
       <c r="G113" t="s">
         <v>1015</v>
       </c>
-      <c r="H113" s="2">
-        <v>6.035833333333334</v>
+      <c r="H113" t="s">
+        <v>1158</v>
       </c>
       <c r="I113" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J113" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K113" t="s">
-        <v>1165</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -8483,17 +8995,17 @@
       <c r="G114" t="s">
         <v>1020</v>
       </c>
-      <c r="H114" s="2">
-        <v>6.052893518518519</v>
+      <c r="H114" t="s">
+        <v>1159</v>
       </c>
       <c r="I114" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J114" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K114" t="s">
-        <v>1166</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -8518,17 +9030,17 @@
       <c r="G115" t="s">
         <v>1038</v>
       </c>
-      <c r="H115" s="2">
-        <v>6.066400462962963</v>
+      <c r="H115" t="s">
+        <v>1160</v>
       </c>
       <c r="I115" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J115" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K115" t="s">
-        <v>1167</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -8553,17 +9065,17 @@
       <c r="G116" t="s">
         <v>1031</v>
       </c>
-      <c r="H116" s="2">
-        <v>6.068761574074074</v>
+      <c r="H116" t="s">
+        <v>1161</v>
       </c>
       <c r="I116" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J116" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K116" t="s">
-        <v>1168</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -8588,17 +9100,17 @@
       <c r="G117" t="s">
         <v>1010</v>
       </c>
-      <c r="H117" s="2">
-        <v>6.072962962962963</v>
+      <c r="H117" t="s">
+        <v>1162</v>
       </c>
       <c r="I117" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J117" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K117" t="s">
-        <v>1169</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -8623,17 +9135,17 @@
       <c r="G118" t="s">
         <v>1025</v>
       </c>
-      <c r="H118" s="2">
-        <v>6.073715277777778</v>
+      <c r="H118" t="s">
+        <v>1163</v>
       </c>
       <c r="I118" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J118" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K118" t="s">
-        <v>1170</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -8658,17 +9170,17 @@
       <c r="G119" t="s">
         <v>1021</v>
       </c>
-      <c r="H119" s="2">
-        <v>6.086168981481482</v>
+      <c r="H119" t="s">
+        <v>1164</v>
       </c>
       <c r="I119" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J119" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K119" t="s">
-        <v>1171</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -8693,17 +9205,17 @@
       <c r="G120" t="s">
         <v>1017</v>
       </c>
-      <c r="H120" s="2">
-        <v>6.086539351851852</v>
+      <c r="H120" t="s">
+        <v>1165</v>
       </c>
       <c r="I120" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J120" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K120" t="s">
-        <v>1172</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -8728,17 +9240,17 @@
       <c r="G121" t="s">
         <v>1033</v>
       </c>
-      <c r="H121" s="2">
-        <v>6.096388888888889</v>
+      <c r="H121" t="s">
+        <v>1166</v>
       </c>
       <c r="I121" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J121" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K121" t="s">
-        <v>1173</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -8763,17 +9275,17 @@
       <c r="G122" t="s">
         <v>1026</v>
       </c>
-      <c r="H122" s="2">
-        <v>6.098287037037037</v>
+      <c r="H122" t="s">
+        <v>1167</v>
       </c>
       <c r="I122" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J122" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K122" t="s">
-        <v>1174</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -8798,17 +9310,17 @@
       <c r="G123" t="s">
         <v>1039</v>
       </c>
-      <c r="H123" s="2">
-        <v>6.098287037037037</v>
+      <c r="H123" t="s">
+        <v>1167</v>
       </c>
       <c r="I123" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J123" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K123" t="s">
-        <v>1175</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -8833,17 +9345,17 @@
       <c r="G124" t="s">
         <v>1030</v>
       </c>
-      <c r="H124" s="2">
-        <v>6.10619212962963</v>
+      <c r="H124" t="s">
+        <v>1168</v>
       </c>
       <c r="I124" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J124" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K124" t="s">
-        <v>1176</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8868,17 +9380,17 @@
       <c r="G125" t="s">
         <v>1018</v>
       </c>
-      <c r="H125" s="2">
-        <v>6.106203703703704</v>
+      <c r="H125" t="s">
+        <v>1169</v>
       </c>
       <c r="I125" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J125" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K125" t="s">
-        <v>1177</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -8903,17 +9415,17 @@
       <c r="G126" t="s">
         <v>1033</v>
       </c>
-      <c r="H126" s="2">
-        <v>6.107141203703704</v>
+      <c r="H126" t="s">
+        <v>1170</v>
       </c>
       <c r="I126" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J126" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K126" t="s">
-        <v>1178</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -8938,17 +9450,17 @@
       <c r="G127" t="s">
         <v>1015</v>
       </c>
-      <c r="H127" s="2">
-        <v>6.114976851851852</v>
+      <c r="H127" t="s">
+        <v>1171</v>
       </c>
       <c r="I127" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J127" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K127" t="s">
-        <v>1179</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -8973,17 +9485,17 @@
       <c r="G128" t="s">
         <v>1039</v>
       </c>
-      <c r="H128" s="2">
-        <v>6.115</v>
+      <c r="H128" t="s">
+        <v>1172</v>
       </c>
       <c r="I128" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J128" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K128" t="s">
-        <v>1180</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -9008,17 +9520,17 @@
       <c r="G129" t="s">
         <v>1040</v>
       </c>
-      <c r="H129" s="2">
-        <v>6.12</v>
+      <c r="H129" t="s">
+        <v>1173</v>
       </c>
       <c r="I129" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J129" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K129" t="s">
-        <v>1181</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -9043,17 +9555,17 @@
       <c r="G130" t="s">
         <v>1023</v>
       </c>
-      <c r="H130" s="2">
-        <v>6.145486111111111</v>
+      <c r="H130" t="s">
+        <v>1174</v>
       </c>
       <c r="I130" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J130" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K130" t="s">
-        <v>1182</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -9078,17 +9590,17 @@
       <c r="G131" t="s">
         <v>1026</v>
       </c>
-      <c r="H131" s="2">
-        <v>6.145486111111111</v>
+      <c r="H131" t="s">
+        <v>1174</v>
       </c>
       <c r="I131" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J131" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K131" t="s">
-        <v>1183</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -9113,17 +9625,17 @@
       <c r="G132" t="s">
         <v>1018</v>
       </c>
-      <c r="H132" s="2">
-        <v>6.145879629629629</v>
+      <c r="H132" t="s">
+        <v>1175</v>
       </c>
       <c r="I132" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J132" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K132" t="s">
-        <v>1184</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -9148,17 +9660,17 @@
       <c r="G133" t="s">
         <v>1030</v>
       </c>
-      <c r="H133" s="2">
-        <v>6.147094907407407</v>
+      <c r="H133" t="s">
+        <v>1176</v>
       </c>
       <c r="I133" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J133" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K133" t="s">
-        <v>1185</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -9183,17 +9695,17 @@
       <c r="G134" t="s">
         <v>1031</v>
       </c>
-      <c r="H134" s="2">
-        <v>6.147847222222222</v>
+      <c r="H134" t="s">
+        <v>1177</v>
       </c>
       <c r="I134" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J134" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K134" t="s">
-        <v>1186</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -9218,17 +9730,17 @@
       <c r="G135" t="s">
         <v>1010</v>
       </c>
-      <c r="H135" s="2">
-        <v>6.148564814814815</v>
+      <c r="H135" t="s">
+        <v>1178</v>
       </c>
       <c r="I135" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J135" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K135" t="s">
-        <v>1187</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -9253,17 +9765,17 @@
       <c r="G136" t="s">
         <v>1027</v>
       </c>
-      <c r="H136" s="2">
-        <v>6.148819444444444</v>
+      <c r="H136" t="s">
+        <v>1179</v>
       </c>
       <c r="I136" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J136" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K136" t="s">
-        <v>1188</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -9288,17 +9800,17 @@
       <c r="G137" t="s">
         <v>1032</v>
       </c>
-      <c r="H137" s="2">
-        <v>6.169606481481481</v>
+      <c r="H137" t="s">
+        <v>1180</v>
       </c>
       <c r="I137" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J137" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K137" t="s">
-        <v>1189</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -9323,17 +9835,17 @@
       <c r="G138" t="s">
         <v>1038</v>
       </c>
-      <c r="H138" s="2">
-        <v>6.184907407407407</v>
+      <c r="H138" t="s">
+        <v>1181</v>
       </c>
       <c r="I138" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J138" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K138" t="s">
-        <v>1190</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -9358,17 +9870,17 @@
       <c r="G139" t="s">
         <v>1034</v>
       </c>
-      <c r="H139" s="2">
-        <v>6.197152777777778</v>
+      <c r="H139" t="s">
+        <v>1182</v>
       </c>
       <c r="I139" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J139" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K139" t="s">
-        <v>1191</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -9393,17 +9905,17 @@
       <c r="G140" t="s">
         <v>1017</v>
       </c>
-      <c r="H140" s="2">
-        <v>6.199351851851852</v>
+      <c r="H140" t="s">
+        <v>1183</v>
       </c>
       <c r="I140" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J140" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K140" t="s">
-        <v>1192</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -9428,17 +9940,17 @@
       <c r="G141" t="s">
         <v>1032</v>
       </c>
-      <c r="H141" s="2">
-        <v>6.200289351851852</v>
+      <c r="H141" t="s">
+        <v>1184</v>
       </c>
       <c r="I141" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J141" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K141" t="s">
-        <v>1193</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -9463,17 +9975,17 @@
       <c r="G142" t="s">
         <v>1017</v>
       </c>
-      <c r="H142" s="2">
-        <v>6.207743055555556</v>
+      <c r="H142" t="s">
+        <v>1185</v>
       </c>
       <c r="I142" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J142" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K142" t="s">
-        <v>1194</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -9498,17 +10010,17 @@
       <c r="G143" t="s">
         <v>1035</v>
       </c>
-      <c r="H143" s="2">
-        <v>6.207766203703704</v>
+      <c r="H143" t="s">
+        <v>1186</v>
       </c>
       <c r="I143" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J143" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K143" t="s">
-        <v>1195</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -9533,17 +10045,17 @@
       <c r="G144" t="s">
         <v>1041</v>
       </c>
-      <c r="H144" s="2">
-        <v>6.216851851851852</v>
+      <c r="H144" t="s">
+        <v>1187</v>
       </c>
       <c r="I144" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J144" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K144" t="s">
-        <v>1196</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -9568,17 +10080,17 @@
       <c r="G145" t="s">
         <v>1015</v>
       </c>
-      <c r="H145" s="2">
-        <v>6.236643518518519</v>
+      <c r="H145" t="s">
+        <v>1188</v>
       </c>
       <c r="I145" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J145" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K145" t="s">
-        <v>1197</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -9603,17 +10115,17 @@
       <c r="G146" t="s">
         <v>1042</v>
       </c>
-      <c r="H146" s="2">
-        <v>6.247025462962963</v>
+      <c r="H146" t="s">
+        <v>1189</v>
       </c>
       <c r="I146" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J146" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K146" t="s">
-        <v>1198</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -9638,17 +10150,17 @@
       <c r="G147" t="s">
         <v>1016</v>
       </c>
-      <c r="H147" s="2">
-        <v>6.247025462962963</v>
+      <c r="H147" t="s">
+        <v>1189</v>
       </c>
       <c r="I147" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J147" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K147" t="s">
-        <v>1199</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -9673,17 +10185,17 @@
       <c r="G148" t="s">
         <v>1016</v>
       </c>
-      <c r="H148" s="2">
-        <v>6.247025462962963</v>
+      <c r="H148" t="s">
+        <v>1189</v>
       </c>
       <c r="I148" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J148" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K148" t="s">
-        <v>1200</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -9708,17 +10220,17 @@
       <c r="G149" t="s">
         <v>1026</v>
       </c>
-      <c r="H149" s="2">
-        <v>6.247060185185185</v>
+      <c r="H149" t="s">
+        <v>1190</v>
       </c>
       <c r="I149" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J149" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K149" t="s">
-        <v>1201</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -9743,17 +10255,17 @@
       <c r="G150" t="s">
         <v>1021</v>
       </c>
-      <c r="H150" s="2">
-        <v>6.249768518518518</v>
+      <c r="H150" t="s">
+        <v>1191</v>
       </c>
       <c r="I150" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J150" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K150" t="s">
-        <v>1202</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -9778,17 +10290,17 @@
       <c r="G151" t="s">
         <v>1028</v>
       </c>
-      <c r="H151" s="2">
-        <v>6.25275462962963</v>
+      <c r="H151" t="s">
+        <v>1192</v>
       </c>
       <c r="I151" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J151" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K151" t="s">
-        <v>1203</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -9813,17 +10325,17 @@
       <c r="G152" t="s">
         <v>1020</v>
       </c>
-      <c r="H152" s="2">
-        <v>6.25355324074074</v>
+      <c r="H152" t="s">
+        <v>1193</v>
       </c>
       <c r="I152" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J152" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K152" t="s">
-        <v>1204</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -9848,17 +10360,17 @@
       <c r="G153" t="s">
         <v>1039</v>
       </c>
-      <c r="H153" s="2">
-        <v>6.260555555555555</v>
+      <c r="H153" t="s">
+        <v>1194</v>
       </c>
       <c r="I153" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J153" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K153" t="s">
-        <v>1205</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -9883,17 +10395,17 @@
       <c r="G154" t="s">
         <v>1039</v>
       </c>
-      <c r="H154" s="2">
-        <v>6.272569444444445</v>
+      <c r="H154" t="s">
+        <v>1195</v>
       </c>
       <c r="I154" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J154" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K154" t="s">
-        <v>1206</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -9918,17 +10430,17 @@
       <c r="G155" t="s">
         <v>1026</v>
       </c>
-      <c r="H155" s="2">
-        <v>6.28806712962963</v>
+      <c r="H155" t="s">
+        <v>1196</v>
       </c>
       <c r="I155" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J155" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K155" t="s">
-        <v>1207</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -9953,17 +10465,17 @@
       <c r="G156" t="s">
         <v>1018</v>
       </c>
-      <c r="H156" s="2">
-        <v>6.295752314814814</v>
+      <c r="H156" t="s">
+        <v>1197</v>
       </c>
       <c r="I156" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J156" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K156" t="s">
-        <v>1208</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -9988,17 +10500,17 @@
       <c r="G157" t="s">
         <v>1015</v>
       </c>
-      <c r="H157" s="2">
-        <v>6.308993055555556</v>
+      <c r="H157" t="s">
+        <v>1198</v>
       </c>
       <c r="I157" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J157" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K157" t="s">
-        <v>1209</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -10023,17 +10535,17 @@
       <c r="G158" t="s">
         <v>1030</v>
       </c>
-      <c r="H158" s="2">
-        <v>6.316493055555555</v>
+      <c r="H158" t="s">
+        <v>1199</v>
       </c>
       <c r="I158" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J158" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K158" t="s">
-        <v>1210</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -10058,17 +10570,17 @@
       <c r="G159" t="s">
         <v>1031</v>
       </c>
-      <c r="H159" s="2">
-        <v>6.319722222222222</v>
+      <c r="H159" t="s">
+        <v>1200</v>
       </c>
       <c r="I159" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J159" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K159" t="s">
-        <v>1211</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -10093,17 +10605,17 @@
       <c r="G160" t="s">
         <v>1027</v>
       </c>
-      <c r="H160" s="2">
-        <v>6.319722222222222</v>
+      <c r="H160" t="s">
+        <v>1200</v>
       </c>
       <c r="I160" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J160" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K160" t="s">
-        <v>1212</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -10128,17 +10640,17 @@
       <c r="G161" t="s">
         <v>1013</v>
       </c>
-      <c r="H161" s="2">
-        <v>6.338611111111111</v>
+      <c r="H161" t="s">
+        <v>1201</v>
       </c>
       <c r="I161" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J161" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K161" t="s">
-        <v>1213</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -10163,17 +10675,17 @@
       <c r="G162" t="s">
         <v>1033</v>
       </c>
-      <c r="H162" s="2">
-        <v>6.372071759259259</v>
+      <c r="H162" t="s">
+        <v>1202</v>
       </c>
       <c r="I162" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J162" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K162" t="s">
-        <v>1214</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -10198,17 +10710,17 @@
       <c r="G163" t="s">
         <v>1029</v>
       </c>
-      <c r="H163" s="2">
-        <v>6.385868055555555</v>
+      <c r="H163" t="s">
+        <v>1203</v>
       </c>
       <c r="I163" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J163" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K163" t="s">
-        <v>1215</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -10233,17 +10745,17 @@
       <c r="G164" t="s">
         <v>1022</v>
       </c>
-      <c r="H164" s="2">
-        <v>6.443645833333333</v>
+      <c r="H164" t="s">
+        <v>1204</v>
       </c>
       <c r="I164" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J164" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K164" t="s">
-        <v>1216</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -10268,17 +10780,17 @@
       <c r="G165" t="s">
         <v>1043</v>
       </c>
-      <c r="H165" s="2">
-        <v>6.470902777777778</v>
+      <c r="H165" t="s">
+        <v>1205</v>
       </c>
       <c r="I165" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J165" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K165" t="s">
-        <v>1217</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -10303,14 +10815,17 @@
       <c r="G166" t="s">
         <v>1025</v>
       </c>
+      <c r="H166" t="s">
+        <v>1206</v>
+      </c>
       <c r="I166" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J166" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K166" t="s">
-        <v>1218</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -10335,14 +10850,17 @@
       <c r="G167" t="s">
         <v>1038</v>
       </c>
+      <c r="H167" t="s">
+        <v>1206</v>
+      </c>
       <c r="I167" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J167" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K167" t="s">
-        <v>1219</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -10367,14 +10885,17 @@
       <c r="G168" t="s">
         <v>1020</v>
       </c>
+      <c r="H168" t="s">
+        <v>1206</v>
+      </c>
       <c r="I168" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J168" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K168" t="s">
-        <v>1220</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -10399,14 +10920,17 @@
       <c r="G169" t="s">
         <v>1027</v>
       </c>
+      <c r="H169" t="s">
+        <v>1206</v>
+      </c>
       <c r="I169" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J169" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K169" t="s">
-        <v>1221</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -10431,14 +10955,17 @@
       <c r="G170" t="s">
         <v>1017</v>
       </c>
+      <c r="H170" t="s">
+        <v>1206</v>
+      </c>
       <c r="I170" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J170" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K170" t="s">
-        <v>1222</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -10463,14 +10990,17 @@
       <c r="G171" t="s">
         <v>1044</v>
       </c>
+      <c r="H171" t="s">
+        <v>1206</v>
+      </c>
       <c r="I171" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J171" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K171" t="s">
-        <v>1223</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -10495,14 +11025,17 @@
       <c r="G172" t="s">
         <v>1013</v>
       </c>
+      <c r="H172" t="s">
+        <v>1206</v>
+      </c>
       <c r="I172" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J172" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K172" t="s">
-        <v>1224</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -10527,14 +11060,17 @@
       <c r="G173" t="s">
         <v>1016</v>
       </c>
+      <c r="H173" t="s">
+        <v>1206</v>
+      </c>
       <c r="I173" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J173" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K173" t="s">
-        <v>1225</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -10559,14 +11095,17 @@
       <c r="G174" t="s">
         <v>1009</v>
       </c>
+      <c r="H174" t="s">
+        <v>1206</v>
+      </c>
       <c r="I174" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J174" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K174" t="s">
-        <v>1226</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -10591,14 +11130,17 @@
       <c r="G175" t="s">
         <v>1017</v>
       </c>
+      <c r="H175" t="s">
+        <v>1206</v>
+      </c>
       <c r="I175" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J175" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K175" t="s">
-        <v>1227</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -10623,14 +11165,17 @@
       <c r="G176" t="s">
         <v>1025</v>
       </c>
+      <c r="H176" t="s">
+        <v>1206</v>
+      </c>
       <c r="I176" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J176" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K176" t="s">
-        <v>1228</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -10655,14 +11200,17 @@
       <c r="G177" t="s">
         <v>1015</v>
       </c>
+      <c r="H177" t="s">
+        <v>1206</v>
+      </c>
       <c r="I177" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J177" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K177" t="s">
-        <v>1229</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -10687,14 +11235,17 @@
       <c r="G178" t="s">
         <v>1025</v>
       </c>
+      <c r="H178" t="s">
+        <v>1206</v>
+      </c>
       <c r="I178" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J178" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K178" t="s">
-        <v>1230</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -10719,14 +11270,17 @@
       <c r="G179" t="s">
         <v>1034</v>
       </c>
+      <c r="H179" t="s">
+        <v>1206</v>
+      </c>
       <c r="I179" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J179" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K179" t="s">
-        <v>1231</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -10751,14 +11305,17 @@
       <c r="G180" t="s">
         <v>1025</v>
       </c>
+      <c r="H180" t="s">
+        <v>1206</v>
+      </c>
       <c r="I180" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J180" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K180" t="s">
-        <v>1232</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -10783,14 +11340,17 @@
       <c r="G181" t="s">
         <v>1015</v>
       </c>
+      <c r="H181" t="s">
+        <v>1206</v>
+      </c>
       <c r="I181" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J181" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K181" t="s">
-        <v>1233</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -10815,14 +11375,17 @@
       <c r="G182" t="s">
         <v>1009</v>
       </c>
+      <c r="H182" t="s">
+        <v>1206</v>
+      </c>
       <c r="I182" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J182" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K182" t="s">
-        <v>1234</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -10847,14 +11410,17 @@
       <c r="G183" t="s">
         <v>1025</v>
       </c>
+      <c r="H183" t="s">
+        <v>1206</v>
+      </c>
       <c r="I183" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J183" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K183" t="s">
-        <v>1235</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -10879,14 +11445,17 @@
       <c r="G184" t="s">
         <v>1045</v>
       </c>
+      <c r="H184" t="s">
+        <v>1206</v>
+      </c>
       <c r="I184" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J184" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K184" t="s">
-        <v>1236</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -10911,14 +11480,17 @@
       <c r="G185" t="s">
         <v>1017</v>
       </c>
+      <c r="H185" t="s">
+        <v>1206</v>
+      </c>
       <c r="I185" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J185" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K185" t="s">
-        <v>1237</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -10943,14 +11515,17 @@
       <c r="G186" t="s">
         <v>1012</v>
       </c>
+      <c r="H186" t="s">
+        <v>1206</v>
+      </c>
       <c r="I186" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J186" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K186" t="s">
-        <v>1238</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -10975,14 +11550,17 @@
       <c r="G187" t="s">
         <v>1030</v>
       </c>
+      <c r="H187" t="s">
+        <v>1206</v>
+      </c>
       <c r="I187" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J187" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K187" t="s">
-        <v>1239</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -11007,14 +11585,17 @@
       <c r="G188" t="s">
         <v>1020</v>
       </c>
+      <c r="H188" t="s">
+        <v>1206</v>
+      </c>
       <c r="I188" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J188" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K188" t="s">
-        <v>1240</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -11039,14 +11620,17 @@
       <c r="G189" t="s">
         <v>1046</v>
       </c>
+      <c r="H189" t="s">
+        <v>1206</v>
+      </c>
       <c r="I189" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J189" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K189" t="s">
-        <v>1241</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -11071,14 +11655,17 @@
       <c r="G190" t="s">
         <v>1023</v>
       </c>
+      <c r="H190" t="s">
+        <v>1206</v>
+      </c>
       <c r="I190" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J190" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K190" t="s">
-        <v>1242</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -11103,14 +11690,17 @@
       <c r="G191" t="s">
         <v>1021</v>
       </c>
+      <c r="H191" t="s">
+        <v>1206</v>
+      </c>
       <c r="I191" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J191" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K191" t="s">
-        <v>1243</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -11135,14 +11725,17 @@
       <c r="G192" t="s">
         <v>1046</v>
       </c>
+      <c r="H192" t="s">
+        <v>1206</v>
+      </c>
       <c r="I192" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J192" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K192" t="s">
-        <v>1244</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -11167,14 +11760,17 @@
       <c r="G193" t="s">
         <v>1014</v>
       </c>
+      <c r="H193" t="s">
+        <v>1206</v>
+      </c>
       <c r="I193" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J193" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K193" t="s">
-        <v>1245</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -11199,14 +11795,17 @@
       <c r="G194" t="s">
         <v>1037</v>
       </c>
+      <c r="H194" t="s">
+        <v>1206</v>
+      </c>
       <c r="I194" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J194" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K194" t="s">
-        <v>1246</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -11231,14 +11830,17 @@
       <c r="G195" t="s">
         <v>1012</v>
       </c>
+      <c r="H195" t="s">
+        <v>1206</v>
+      </c>
       <c r="I195" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J195" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K195" t="s">
-        <v>1247</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -11263,14 +11865,17 @@
       <c r="G196" t="s">
         <v>1038</v>
       </c>
+      <c r="H196" t="s">
+        <v>1206</v>
+      </c>
       <c r="I196" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J196" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K196" t="s">
-        <v>1248</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -11295,14 +11900,17 @@
       <c r="G197" t="s">
         <v>1025</v>
       </c>
+      <c r="H197" t="s">
+        <v>1206</v>
+      </c>
       <c r="I197" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J197" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K197" t="s">
-        <v>1249</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -11327,14 +11935,17 @@
       <c r="G198" t="s">
         <v>1026</v>
       </c>
+      <c r="H198" t="s">
+        <v>1206</v>
+      </c>
       <c r="I198" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J198" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K198" t="s">
-        <v>1250</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -11359,14 +11970,17 @@
       <c r="G199" t="s">
         <v>1034</v>
       </c>
+      <c r="H199" t="s">
+        <v>1206</v>
+      </c>
       <c r="I199" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J199" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K199" t="s">
-        <v>1251</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -11391,14 +12005,17 @@
       <c r="G200" t="s">
         <v>1025</v>
       </c>
+      <c r="H200" t="s">
+        <v>1206</v>
+      </c>
       <c r="I200" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J200" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K200" t="s">
-        <v>1252</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -11423,14 +12040,17 @@
       <c r="G201" t="s">
         <v>1035</v>
       </c>
+      <c r="H201" t="s">
+        <v>1206</v>
+      </c>
       <c r="I201" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J201" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K201" t="s">
-        <v>1253</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -11455,14 +12075,17 @@
       <c r="G202" t="s">
         <v>1032</v>
       </c>
+      <c r="H202" t="s">
+        <v>1206</v>
+      </c>
       <c r="I202" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J202" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K202" t="s">
-        <v>1254</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -11487,14 +12110,17 @@
       <c r="G203" t="s">
         <v>1038</v>
       </c>
+      <c r="H203" t="s">
+        <v>1206</v>
+      </c>
       <c r="I203" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J203" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K203" t="s">
-        <v>1255</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -11519,14 +12145,17 @@
       <c r="G204" t="s">
         <v>1022</v>
       </c>
+      <c r="H204" t="s">
+        <v>1206</v>
+      </c>
       <c r="I204" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J204" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K204" t="s">
-        <v>1256</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -11551,14 +12180,17 @@
       <c r="G205" t="s">
         <v>1018</v>
       </c>
+      <c r="H205" t="s">
+        <v>1206</v>
+      </c>
       <c r="I205" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J205" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K205" t="s">
-        <v>1257</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -11583,14 +12215,17 @@
       <c r="G206" t="s">
         <v>1013</v>
       </c>
+      <c r="H206" t="s">
+        <v>1206</v>
+      </c>
       <c r="I206" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J206" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K206" t="s">
-        <v>1258</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -11615,14 +12250,17 @@
       <c r="G207" t="s">
         <v>1015</v>
       </c>
+      <c r="H207" t="s">
+        <v>1206</v>
+      </c>
       <c r="I207" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J207" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K207" t="s">
-        <v>1259</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -11647,14 +12285,17 @@
       <c r="G208" t="s">
         <v>1035</v>
       </c>
+      <c r="H208" t="s">
+        <v>1206</v>
+      </c>
       <c r="I208" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J208" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K208" t="s">
-        <v>1260</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -11679,14 +12320,17 @@
       <c r="G209" t="s">
         <v>1016</v>
       </c>
+      <c r="H209" t="s">
+        <v>1206</v>
+      </c>
       <c r="I209" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J209" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K209" t="s">
-        <v>1261</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -11711,14 +12355,17 @@
       <c r="G210" t="s">
         <v>1026</v>
       </c>
+      <c r="H210" t="s">
+        <v>1206</v>
+      </c>
       <c r="I210" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J210" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K210" t="s">
-        <v>1262</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -11743,14 +12390,17 @@
       <c r="G211" t="s">
         <v>1032</v>
       </c>
+      <c r="H211" t="s">
+        <v>1206</v>
+      </c>
       <c r="I211" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J211" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K211" t="s">
-        <v>1263</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -11775,14 +12425,17 @@
       <c r="G212" t="s">
         <v>1028</v>
       </c>
+      <c r="H212" t="s">
+        <v>1206</v>
+      </c>
       <c r="I212" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J212" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K212" t="s">
-        <v>1264</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -11807,14 +12460,17 @@
       <c r="G213" t="s">
         <v>1018</v>
       </c>
+      <c r="H213" t="s">
+        <v>1206</v>
+      </c>
       <c r="I213" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J213" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K213" t="s">
-        <v>1265</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -11839,14 +12495,17 @@
       <c r="G214" t="s">
         <v>1039</v>
       </c>
+      <c r="H214" t="s">
+        <v>1206</v>
+      </c>
       <c r="I214" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J214" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K214" t="s">
-        <v>1266</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -11871,14 +12530,17 @@
       <c r="G215" t="s">
         <v>1023</v>
       </c>
+      <c r="H215" t="s">
+        <v>1206</v>
+      </c>
       <c r="I215" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J215" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K215" t="s">
-        <v>1267</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -11903,14 +12565,17 @@
       <c r="G216" t="s">
         <v>1047</v>
       </c>
+      <c r="H216" t="s">
+        <v>1206</v>
+      </c>
       <c r="I216" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J216" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K216" t="s">
-        <v>1268</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -11935,14 +12600,17 @@
       <c r="G217" t="s">
         <v>1030</v>
       </c>
+      <c r="H217" t="s">
+        <v>1206</v>
+      </c>
       <c r="I217" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J217" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K217" t="s">
-        <v>1269</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -11967,14 +12635,17 @@
       <c r="G218" t="s">
         <v>1016</v>
       </c>
+      <c r="H218" t="s">
+        <v>1206</v>
+      </c>
       <c r="I218" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J218" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K218" t="s">
-        <v>1270</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -11999,14 +12670,17 @@
       <c r="G219" t="s">
         <v>1042</v>
       </c>
+      <c r="H219" t="s">
+        <v>1206</v>
+      </c>
       <c r="I219" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J219" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K219" t="s">
-        <v>1271</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -12031,14 +12705,17 @@
       <c r="G220" t="s">
         <v>1047</v>
       </c>
+      <c r="H220" t="s">
+        <v>1206</v>
+      </c>
       <c r="I220" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J220" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K220" t="s">
-        <v>1272</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -12063,14 +12740,17 @@
       <c r="G221" t="s">
         <v>1037</v>
       </c>
+      <c r="H221" t="s">
+        <v>1206</v>
+      </c>
       <c r="I221" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J221" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K221" t="s">
-        <v>1273</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -12095,14 +12775,17 @@
       <c r="G222" t="s">
         <v>1016</v>
       </c>
+      <c r="H222" t="s">
+        <v>1206</v>
+      </c>
       <c r="I222" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J222" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K222" t="s">
-        <v>1274</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -12127,14 +12810,17 @@
       <c r="G223" t="s">
         <v>1015</v>
       </c>
+      <c r="H223" t="s">
+        <v>1206</v>
+      </c>
       <c r="I223" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J223" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K223" t="s">
-        <v>1275</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -12159,14 +12845,17 @@
       <c r="G224" t="s">
         <v>1016</v>
       </c>
+      <c r="H224" t="s">
+        <v>1206</v>
+      </c>
       <c r="I224" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J224" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K224" t="s">
-        <v>1276</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -12191,14 +12880,17 @@
       <c r="G225" t="s">
         <v>1025</v>
       </c>
+      <c r="H225" t="s">
+        <v>1206</v>
+      </c>
       <c r="I225" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J225" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K225" t="s">
-        <v>1277</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -12223,14 +12915,17 @@
       <c r="G226" t="s">
         <v>1026</v>
       </c>
+      <c r="H226" t="s">
+        <v>1206</v>
+      </c>
       <c r="I226" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J226" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K226" t="s">
-        <v>1278</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -12255,14 +12950,17 @@
       <c r="G227" t="s">
         <v>1016</v>
       </c>
+      <c r="H227" t="s">
+        <v>1206</v>
+      </c>
       <c r="I227" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J227" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K227" t="s">
-        <v>1279</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -12287,14 +12985,17 @@
       <c r="G228" t="s">
         <v>1009</v>
       </c>
+      <c r="H228" t="s">
+        <v>1206</v>
+      </c>
       <c r="I228" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J228" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K228" t="s">
-        <v>1280</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -12319,14 +13020,17 @@
       <c r="G229" t="s">
         <v>1015</v>
       </c>
+      <c r="H229" t="s">
+        <v>1206</v>
+      </c>
       <c r="I229" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J229" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K229" t="s">
-        <v>1281</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -12351,14 +13055,17 @@
       <c r="G230" t="s">
         <v>1022</v>
       </c>
+      <c r="H230" t="s">
+        <v>1206</v>
+      </c>
       <c r="I230" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J230" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K230" t="s">
-        <v>1282</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -12383,14 +13090,17 @@
       <c r="G231" t="s">
         <v>1022</v>
       </c>
+      <c r="H231" t="s">
+        <v>1206</v>
+      </c>
       <c r="I231" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J231" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K231" t="s">
-        <v>1283</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -12415,14 +13125,17 @@
       <c r="G232" t="s">
         <v>1039</v>
       </c>
+      <c r="H232" t="s">
+        <v>1206</v>
+      </c>
       <c r="I232" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J232" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K232" t="s">
-        <v>1284</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -12447,14 +13160,17 @@
       <c r="G233" t="s">
         <v>1009</v>
       </c>
+      <c r="H233" t="s">
+        <v>1206</v>
+      </c>
       <c r="I233" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J233" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K233" t="s">
-        <v>1285</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -12479,14 +13195,17 @@
       <c r="G234" t="s">
         <v>1023</v>
       </c>
+      <c r="H234" t="s">
+        <v>1206</v>
+      </c>
       <c r="I234" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J234" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K234" t="s">
-        <v>1286</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -12511,14 +13230,17 @@
       <c r="G235" t="s">
         <v>1039</v>
       </c>
+      <c r="H235" t="s">
+        <v>1206</v>
+      </c>
       <c r="I235" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J235" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K235" t="s">
-        <v>1287</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -12543,14 +13265,17 @@
       <c r="G236" t="s">
         <v>1030</v>
       </c>
+      <c r="H236" t="s">
+        <v>1206</v>
+      </c>
       <c r="I236" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J236" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K236" t="s">
-        <v>1288</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -12575,14 +13300,17 @@
       <c r="G237" t="s">
         <v>1014</v>
       </c>
+      <c r="H237" t="s">
+        <v>1206</v>
+      </c>
       <c r="I237" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J237" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K237" t="s">
-        <v>1289</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -12607,14 +13335,17 @@
       <c r="G238" t="s">
         <v>1037</v>
       </c>
+      <c r="H238" t="s">
+        <v>1206</v>
+      </c>
       <c r="I238" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J238" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K238" t="s">
-        <v>1290</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -12639,14 +13370,17 @@
       <c r="G239" t="s">
         <v>1048</v>
       </c>
+      <c r="H239" t="s">
+        <v>1206</v>
+      </c>
       <c r="I239" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J239" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K239" t="s">
-        <v>1291</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -12671,14 +13405,17 @@
       <c r="G240" t="s">
         <v>1025</v>
       </c>
+      <c r="H240" t="s">
+        <v>1206</v>
+      </c>
       <c r="I240" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J240" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K240" t="s">
-        <v>1292</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -12703,14 +13440,17 @@
       <c r="G241" t="s">
         <v>1017</v>
       </c>
+      <c r="H241" t="s">
+        <v>1206</v>
+      </c>
       <c r="I241" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J241" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K241" t="s">
-        <v>1293</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -12735,14 +13475,17 @@
       <c r="G242" t="s">
         <v>1039</v>
       </c>
+      <c r="H242" t="s">
+        <v>1206</v>
+      </c>
       <c r="I242" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J242" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K242" t="s">
-        <v>1294</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -12767,14 +13510,17 @@
       <c r="G243" t="s">
         <v>1039</v>
       </c>
+      <c r="H243" t="s">
+        <v>1206</v>
+      </c>
       <c r="I243" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J243" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K243" t="s">
-        <v>1295</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -12799,14 +13545,17 @@
       <c r="G244" t="s">
         <v>1016</v>
       </c>
+      <c r="H244" t="s">
+        <v>1206</v>
+      </c>
       <c r="I244" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J244" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K244" t="s">
-        <v>1296</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -12831,14 +13580,17 @@
       <c r="G245" t="s">
         <v>1021</v>
       </c>
+      <c r="H245" t="s">
+        <v>1206</v>
+      </c>
       <c r="I245" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J245" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K245" t="s">
-        <v>1297</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -12863,14 +13615,17 @@
       <c r="G246" t="s">
         <v>1023</v>
       </c>
+      <c r="H246" t="s">
+        <v>1206</v>
+      </c>
       <c r="I246" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J246" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K246" t="s">
-        <v>1298</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -12895,14 +13650,17 @@
       <c r="G247" t="s">
         <v>1016</v>
       </c>
+      <c r="H247" t="s">
+        <v>1206</v>
+      </c>
       <c r="I247" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J247" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K247" t="s">
-        <v>1299</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -12927,14 +13685,17 @@
       <c r="G248" t="s">
         <v>1027</v>
       </c>
+      <c r="H248" t="s">
+        <v>1206</v>
+      </c>
       <c r="I248" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J248" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K248" t="s">
-        <v>1300</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -12959,14 +13720,17 @@
       <c r="G249" t="s">
         <v>1025</v>
       </c>
+      <c r="H249" t="s">
+        <v>1206</v>
+      </c>
       <c r="I249" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J249" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K249" t="s">
-        <v>1301</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -12991,14 +13755,17 @@
       <c r="G250" t="s">
         <v>1044</v>
       </c>
+      <c r="H250" t="s">
+        <v>1206</v>
+      </c>
       <c r="I250" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J250" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K250" t="s">
-        <v>1302</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -13023,14 +13790,17 @@
       <c r="G251" t="s">
         <v>1025</v>
       </c>
+      <c r="H251" t="s">
+        <v>1206</v>
+      </c>
       <c r="I251" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J251" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K251" t="s">
-        <v>1303</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -13055,14 +13825,17 @@
       <c r="G252" t="s">
         <v>1021</v>
       </c>
+      <c r="H252" t="s">
+        <v>1206</v>
+      </c>
       <c r="I252" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J252" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K252" t="s">
-        <v>1304</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -13087,14 +13860,17 @@
       <c r="G253" t="s">
         <v>1023</v>
       </c>
+      <c r="H253" t="s">
+        <v>1206</v>
+      </c>
       <c r="I253" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J253" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K253" t="s">
-        <v>1305</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -13119,14 +13895,17 @@
       <c r="G254" t="s">
         <v>1044</v>
       </c>
+      <c r="H254" t="s">
+        <v>1206</v>
+      </c>
       <c r="I254" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J254" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K254" t="s">
-        <v>1306</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -13151,14 +13930,17 @@
       <c r="G255" t="s">
         <v>1046</v>
       </c>
+      <c r="H255" t="s">
+        <v>1206</v>
+      </c>
       <c r="I255" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J255" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K255" t="s">
-        <v>1307</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -13183,14 +13965,17 @@
       <c r="G256" t="s">
         <v>1034</v>
       </c>
+      <c r="H256" t="s">
+        <v>1206</v>
+      </c>
       <c r="I256" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J256" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K256" t="s">
-        <v>1308</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -13215,14 +14000,17 @@
       <c r="G257" t="s">
         <v>1016</v>
       </c>
+      <c r="H257" t="s">
+        <v>1206</v>
+      </c>
       <c r="I257" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J257" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K257" t="s">
-        <v>1309</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -13247,14 +14035,17 @@
       <c r="G258" t="s">
         <v>1042</v>
       </c>
+      <c r="H258" t="s">
+        <v>1206</v>
+      </c>
       <c r="I258" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J258" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K258" t="s">
-        <v>1310</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -13279,14 +14070,17 @@
       <c r="G259" t="s">
         <v>1023</v>
       </c>
+      <c r="H259" t="s">
+        <v>1206</v>
+      </c>
       <c r="I259" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J259" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K259" t="s">
-        <v>1311</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -13311,14 +14105,17 @@
       <c r="G260" t="s">
         <v>1022</v>
       </c>
+      <c r="H260" t="s">
+        <v>1206</v>
+      </c>
       <c r="I260" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J260" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K260" t="s">
-        <v>1312</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -13343,14 +14140,17 @@
       <c r="G261" t="s">
         <v>1016</v>
       </c>
+      <c r="H261" t="s">
+        <v>1206</v>
+      </c>
       <c r="I261" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J261" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K261" t="s">
-        <v>1313</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -13375,14 +14175,17 @@
       <c r="G262" t="s">
         <v>1020</v>
       </c>
+      <c r="H262" t="s">
+        <v>1206</v>
+      </c>
       <c r="I262" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J262" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K262" t="s">
-        <v>1314</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -13407,14 +14210,17 @@
       <c r="G263" t="s">
         <v>1026</v>
       </c>
+      <c r="H263" t="s">
+        <v>1206</v>
+      </c>
       <c r="I263" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J263" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K263" t="s">
-        <v>1315</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -13439,14 +14245,17 @@
       <c r="G264" t="s">
         <v>1036</v>
       </c>
+      <c r="H264" t="s">
+        <v>1206</v>
+      </c>
       <c r="I264" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J264" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K264" t="s">
-        <v>1316</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -13471,14 +14280,17 @@
       <c r="G265" t="s">
         <v>1026</v>
       </c>
+      <c r="H265" t="s">
+        <v>1206</v>
+      </c>
       <c r="I265" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J265" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K265" t="s">
-        <v>1317</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -13503,14 +14315,17 @@
       <c r="G266" t="s">
         <v>1028</v>
       </c>
+      <c r="H266" t="s">
+        <v>1206</v>
+      </c>
       <c r="I266" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J266" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K266" t="s">
-        <v>1318</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -13535,14 +14350,17 @@
       <c r="G267" t="s">
         <v>1042</v>
       </c>
+      <c r="H267" t="s">
+        <v>1206</v>
+      </c>
       <c r="I267" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J267" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K267" t="s">
-        <v>1319</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -13567,14 +14385,17 @@
       <c r="G268" t="s">
         <v>1030</v>
       </c>
+      <c r="H268" t="s">
+        <v>1206</v>
+      </c>
       <c r="I268" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J268" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K268" t="s">
-        <v>1320</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -13599,14 +14420,17 @@
       <c r="G269" t="s">
         <v>1023</v>
       </c>
+      <c r="H269" t="s">
+        <v>1206</v>
+      </c>
       <c r="I269" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J269" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K269" t="s">
-        <v>1321</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -13631,14 +14455,17 @@
       <c r="G270" t="s">
         <v>1023</v>
       </c>
+      <c r="H270" t="s">
+        <v>1206</v>
+      </c>
       <c r="I270" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J270" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K270" t="s">
-        <v>1322</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -13663,14 +14490,17 @@
       <c r="G271" t="s">
         <v>1038</v>
       </c>
+      <c r="H271" t="s">
+        <v>1206</v>
+      </c>
       <c r="I271" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J271" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K271" t="s">
-        <v>1323</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -13695,14 +14525,17 @@
       <c r="G272" t="s">
         <v>1031</v>
       </c>
+      <c r="H272" t="s">
+        <v>1206</v>
+      </c>
       <c r="I272" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J272" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K272" t="s">
-        <v>1324</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -13727,14 +14560,17 @@
       <c r="G273" t="s">
         <v>1011</v>
       </c>
+      <c r="H273" t="s">
+        <v>1206</v>
+      </c>
       <c r="I273" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J273" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K273" t="s">
-        <v>1325</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -13759,14 +14595,17 @@
       <c r="G274" t="s">
         <v>1045</v>
       </c>
+      <c r="H274" t="s">
+        <v>1206</v>
+      </c>
       <c r="I274" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J274" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K274" t="s">
-        <v>1326</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -13791,14 +14630,17 @@
       <c r="G275" t="s">
         <v>1035</v>
       </c>
+      <c r="H275" t="s">
+        <v>1206</v>
+      </c>
       <c r="I275" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J275" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K275" t="s">
-        <v>1327</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -13823,14 +14665,17 @@
       <c r="G276" t="s">
         <v>1027</v>
       </c>
+      <c r="H276" t="s">
+        <v>1206</v>
+      </c>
       <c r="I276" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J276" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K276" t="s">
-        <v>1328</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -13855,14 +14700,17 @@
       <c r="G277" t="s">
         <v>1023</v>
       </c>
+      <c r="H277" t="s">
+        <v>1206</v>
+      </c>
       <c r="I277" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J277" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K277" t="s">
-        <v>1329</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -13887,14 +14735,17 @@
       <c r="G278" t="s">
         <v>1049</v>
       </c>
+      <c r="H278" t="s">
+        <v>1206</v>
+      </c>
       <c r="I278" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J278" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K278" t="s">
-        <v>1330</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -13919,14 +14770,17 @@
       <c r="G279" t="s">
         <v>1050</v>
       </c>
+      <c r="H279" t="s">
+        <v>1206</v>
+      </c>
       <c r="I279" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J279" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K279" t="s">
-        <v>1331</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -13951,14 +14805,17 @@
       <c r="G280" t="s">
         <v>1029</v>
       </c>
+      <c r="H280" t="s">
+        <v>1206</v>
+      </c>
       <c r="I280" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J280" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K280" t="s">
-        <v>1332</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -13983,14 +14840,17 @@
       <c r="G281" t="s">
         <v>1042</v>
       </c>
+      <c r="H281" t="s">
+        <v>1206</v>
+      </c>
       <c r="I281" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J281" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K281" t="s">
-        <v>1333</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -14015,14 +14875,17 @@
       <c r="G282" t="s">
         <v>1044</v>
       </c>
+      <c r="H282" t="s">
+        <v>1206</v>
+      </c>
       <c r="I282" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J282" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K282" t="s">
-        <v>1334</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -14047,14 +14910,17 @@
       <c r="G283" t="s">
         <v>1038</v>
       </c>
+      <c r="H283" t="s">
+        <v>1206</v>
+      </c>
       <c r="I283" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J283" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K283" t="s">
-        <v>1335</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -14079,14 +14945,17 @@
       <c r="G284" t="s">
         <v>1025</v>
       </c>
+      <c r="H284" t="s">
+        <v>1206</v>
+      </c>
       <c r="I284" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J284" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K284" t="s">
-        <v>1336</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -14111,14 +14980,17 @@
       <c r="G285" t="s">
         <v>1051</v>
       </c>
+      <c r="H285" t="s">
+        <v>1206</v>
+      </c>
       <c r="I285" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J285" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K285" t="s">
-        <v>1337</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -14143,14 +15015,17 @@
       <c r="G286" t="s">
         <v>1047</v>
       </c>
+      <c r="H286" t="s">
+        <v>1206</v>
+      </c>
       <c r="I286" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J286" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K286" t="s">
-        <v>1338</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -14175,14 +15050,17 @@
       <c r="G287" t="s">
         <v>1039</v>
       </c>
+      <c r="H287" t="s">
+        <v>1206</v>
+      </c>
       <c r="I287" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J287" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K287" t="s">
-        <v>1339</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -14207,14 +15085,17 @@
       <c r="G288" t="s">
         <v>1030</v>
       </c>
+      <c r="H288" t="s">
+        <v>1206</v>
+      </c>
       <c r="I288" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J288" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K288" t="s">
-        <v>1340</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -14239,14 +15120,17 @@
       <c r="G289" t="s">
         <v>1022</v>
       </c>
+      <c r="H289" t="s">
+        <v>1206</v>
+      </c>
       <c r="I289" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J289" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K289" t="s">
-        <v>1341</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -14271,14 +15155,17 @@
       <c r="G290" t="s">
         <v>1046</v>
       </c>
+      <c r="H290" t="s">
+        <v>1206</v>
+      </c>
       <c r="I290" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J290" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K290" t="s">
-        <v>1342</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -14303,14 +15190,17 @@
       <c r="G291" t="s">
         <v>1018</v>
       </c>
+      <c r="H291" t="s">
+        <v>1206</v>
+      </c>
       <c r="I291" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J291" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K291" t="s">
-        <v>1343</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -14335,14 +15225,17 @@
       <c r="G292" t="s">
         <v>1025</v>
       </c>
+      <c r="H292" t="s">
+        <v>1206</v>
+      </c>
       <c r="I292" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J292" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K292" t="s">
-        <v>1344</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -14367,14 +15260,17 @@
       <c r="G293" t="s">
         <v>1012</v>
       </c>
+      <c r="H293" t="s">
+        <v>1206</v>
+      </c>
       <c r="I293" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J293" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K293" t="s">
-        <v>1345</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -14399,14 +15295,17 @@
       <c r="G294" t="s">
         <v>1020</v>
       </c>
+      <c r="H294" t="s">
+        <v>1206</v>
+      </c>
       <c r="I294" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J294" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K294" t="s">
-        <v>1346</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -14431,17 +15330,17 @@
       <c r="G295" t="s">
         <v>1013</v>
       </c>
-      <c r="H295" s="2">
-        <v>4.37943287037037</v>
+      <c r="H295" t="s">
+        <v>1207</v>
       </c>
       <c r="I295" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J295" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K295" t="s">
-        <v>1347</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -14466,17 +15365,17 @@
       <c r="G296" t="s">
         <v>1009</v>
       </c>
-      <c r="H296" s="2">
-        <v>4.739178240740741</v>
+      <c r="H296" t="s">
+        <v>1065</v>
       </c>
       <c r="I296" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J296" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K296" t="s">
-        <v>1348</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -14501,17 +15400,17 @@
       <c r="G297" t="s">
         <v>1045</v>
       </c>
-      <c r="H297" s="2">
-        <v>4.835636574074074</v>
+      <c r="H297" t="s">
+        <v>1208</v>
       </c>
       <c r="I297" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J297" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K297" t="s">
-        <v>1349</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -14536,17 +15435,17 @@
       <c r="G298" t="s">
         <v>1009</v>
       </c>
-      <c r="H298" s="2">
-        <v>4.858877314814815</v>
+      <c r="H298" t="s">
+        <v>1209</v>
       </c>
       <c r="I298" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J298" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K298" t="s">
-        <v>1350</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -14571,17 +15470,17 @@
       <c r="G299" t="s">
         <v>1040</v>
       </c>
-      <c r="H299" s="2">
-        <v>5.016284722222222</v>
+      <c r="H299" t="s">
+        <v>1210</v>
       </c>
       <c r="I299" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J299" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K299" t="s">
-        <v>1351</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -14606,17 +15505,17 @@
       <c r="G300" t="s">
         <v>1026</v>
       </c>
-      <c r="H300" s="2">
-        <v>5.176030092592592</v>
+      <c r="H300" t="s">
+        <v>1211</v>
       </c>
       <c r="I300" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J300" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K300" t="s">
-        <v>1352</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -14641,17 +15540,17 @@
       <c r="G301" t="s">
         <v>1030</v>
       </c>
-      <c r="H301" s="2">
-        <v>5.208043981481482</v>
+      <c r="H301" t="s">
+        <v>1212</v>
       </c>
       <c r="I301" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J301" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K301" t="s">
-        <v>1353</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -14676,17 +15575,17 @@
       <c r="G302" t="s">
         <v>1041</v>
       </c>
-      <c r="H302" s="2">
-        <v>5.299004629629629</v>
+      <c r="H302" t="s">
+        <v>1213</v>
       </c>
       <c r="I302" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J302" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K302" t="s">
-        <v>1354</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -14711,17 +15610,17 @@
       <c r="G303" t="s">
         <v>1038</v>
       </c>
-      <c r="H303" s="2">
-        <v>5.436018518518519</v>
+      <c r="H303" t="s">
+        <v>1214</v>
       </c>
       <c r="I303" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J303" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K303" t="s">
-        <v>1355</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -14746,17 +15645,17 @@
       <c r="G304" t="s">
         <v>1039</v>
       </c>
-      <c r="H304" s="2">
-        <v>5.4509375</v>
+      <c r="H304" t="s">
+        <v>1215</v>
       </c>
       <c r="I304" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J304" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K304" t="s">
-        <v>1356</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -14781,17 +15680,17 @@
       <c r="G305" t="s">
         <v>1023</v>
       </c>
-      <c r="H305" s="2">
-        <v>5.86818287037037</v>
+      <c r="H305" t="s">
+        <v>1216</v>
       </c>
       <c r="I305" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J305" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K305" t="s">
-        <v>1357</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -14816,17 +15715,17 @@
       <c r="G306" t="s">
         <v>1011</v>
       </c>
-      <c r="H306" s="2">
-        <v>6.079722222222222</v>
+      <c r="H306" t="s">
+        <v>1217</v>
       </c>
       <c r="I306" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J306" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K306" t="s">
-        <v>1358</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -14851,17 +15750,17 @@
       <c r="G307" t="s">
         <v>1027</v>
       </c>
-      <c r="H307" s="2">
-        <v>6.173958333333333</v>
+      <c r="H307" t="s">
+        <v>1218</v>
       </c>
       <c r="I307" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J307" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K307" t="s">
-        <v>1359</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -14886,17 +15785,17 @@
       <c r="G308" t="s">
         <v>1046</v>
       </c>
-      <c r="H308" s="2">
-        <v>6.191377314814815</v>
+      <c r="H308" t="s">
+        <v>1219</v>
       </c>
       <c r="I308" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J308" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K308" t="s">
-        <v>1360</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -14921,17 +15820,17 @@
       <c r="G309" t="s">
         <v>1047</v>
       </c>
-      <c r="H309" s="2">
-        <v>6.225127314814815</v>
+      <c r="H309" t="s">
+        <v>1220</v>
       </c>
       <c r="I309" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J309" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K309" t="s">
-        <v>1361</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -14956,17 +15855,17 @@
       <c r="G310" t="s">
         <v>1027</v>
       </c>
-      <c r="H310" s="2">
-        <v>6.244872685185185</v>
+      <c r="H310" t="s">
+        <v>1221</v>
       </c>
       <c r="I310" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J310" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K310" t="s">
-        <v>1362</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -14991,17 +15890,17 @@
       <c r="G311" t="s">
         <v>1030</v>
       </c>
-      <c r="H311" s="2">
-        <v>6.272546296296296</v>
+      <c r="H311" t="s">
+        <v>1222</v>
       </c>
       <c r="I311" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J311" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K311" t="s">
-        <v>1363</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -15026,17 +15925,17 @@
       <c r="G312" t="s">
         <v>1009</v>
       </c>
-      <c r="H312" s="2">
-        <v>6.338611111111111</v>
+      <c r="H312" t="s">
+        <v>1201</v>
       </c>
       <c r="I312" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J312" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K312" t="s">
-        <v>1364</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -15061,14 +15960,17 @@
       <c r="G313" t="s">
         <v>1025</v>
       </c>
+      <c r="H313" t="s">
+        <v>1206</v>
+      </c>
       <c r="I313" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J313" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K313" t="s">
-        <v>1365</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -15093,14 +15995,17 @@
       <c r="G314" t="s">
         <v>1023</v>
       </c>
+      <c r="H314" t="s">
+        <v>1206</v>
+      </c>
       <c r="I314" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J314" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K314" t="s">
-        <v>1366</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -15125,14 +16030,17 @@
       <c r="G315" t="s">
         <v>1025</v>
       </c>
+      <c r="H315" t="s">
+        <v>1206</v>
+      </c>
       <c r="I315" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J315" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K315" t="s">
-        <v>1367</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -15157,14 +16065,17 @@
       <c r="G316" t="s">
         <v>1012</v>
       </c>
+      <c r="H316" t="s">
+        <v>1206</v>
+      </c>
       <c r="I316" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J316" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K316" t="s">
-        <v>1368</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -15189,14 +16100,17 @@
       <c r="G317" t="s">
         <v>1013</v>
       </c>
+      <c r="H317" t="s">
+        <v>1206</v>
+      </c>
       <c r="I317" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J317" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K317" t="s">
-        <v>1369</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -15221,14 +16135,17 @@
       <c r="G318" t="s">
         <v>1017</v>
       </c>
+      <c r="H318" t="s">
+        <v>1206</v>
+      </c>
       <c r="I318" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J318" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K318" t="s">
-        <v>1370</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -15253,14 +16170,17 @@
       <c r="G319" t="s">
         <v>1034</v>
       </c>
+      <c r="H319" t="s">
+        <v>1206</v>
+      </c>
       <c r="I319" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J319" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K319" t="s">
-        <v>1371</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -15285,14 +16205,17 @@
       <c r="G320" t="s">
         <v>1047</v>
       </c>
+      <c r="H320" t="s">
+        <v>1206</v>
+      </c>
       <c r="I320" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J320" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K320" t="s">
-        <v>1372</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -15317,14 +16240,17 @@
       <c r="G321" t="s">
         <v>1020</v>
       </c>
+      <c r="H321" t="s">
+        <v>1206</v>
+      </c>
       <c r="I321" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J321" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K321" t="s">
-        <v>1373</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -15349,14 +16275,17 @@
       <c r="G322" t="s">
         <v>1030</v>
       </c>
+      <c r="H322" t="s">
+        <v>1206</v>
+      </c>
       <c r="I322" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J322" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K322" t="s">
-        <v>1374</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -15381,14 +16310,17 @@
       <c r="G323" t="s">
         <v>1013</v>
       </c>
+      <c r="H323" t="s">
+        <v>1206</v>
+      </c>
       <c r="I323" t="s">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c r="J323" t="s">
-        <v>1053</v>
+        <v>1224</v>
       </c>
       <c r="K323" t="s">
-        <v>1375</v>
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
